--- a/data/consolidated.xlsx
+++ b/data/consolidated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rominagraf/Development_ZHAW/ARM_Project_Group_3/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFA3DB50-656C-6144-BECB-2470F72CCDA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA84FD6E-B696-D345-AAC3-BFD5B2833944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17360" xr2:uid="{84750920-C407-DD4C-88CD-1382F67CA207}"/>
   </bookViews>

--- a/data/consolidated.xlsx
+++ b/data/consolidated.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rominagraf/Development_ZHAW/ARM_Project_Group_3/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA84FD6E-B696-D345-AAC3-BFD5B2833944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F08E2298-97D9-A04B-BCA9-27B03281E974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17360" xr2:uid="{84750920-C407-DD4C-88CD-1382F67CA207}"/>
+    <workbookView xWindow="1640" yWindow="1380" windowWidth="39500" windowHeight="23200" xr2:uid="{84750920-C407-DD4C-88CD-1382F67CA207}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$121</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="560">
   <si>
     <t>web_scraper_order</t>
   </si>
@@ -1665,6 +1666,60 @@
   </si>
   <si>
     <t>address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chf_per_m2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">m2_per_chf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">age_category </t>
+  </si>
+  <si>
+    <t>Vor 1919 erbaut</t>
+  </si>
+  <si>
+    <t>1919–1945</t>
+  </si>
+  <si>
+    <t>1946–1960</t>
+  </si>
+  <si>
+    <t>1961–1970</t>
+  </si>
+  <si>
+    <t>1971–1980</t>
+  </si>
+  <si>
+    <t>1981–1990</t>
+  </si>
+  <si>
+    <t>1991–2000</t>
+  </si>
+  <si>
+    <t>2001–2005</t>
+  </si>
+  <si>
+    <t>2006–2010</t>
+  </si>
+  <si>
+    <t>2011–2015</t>
+  </si>
+  <si>
+    <t>2016–2020</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>2021–2025</t>
+  </si>
+  <si>
+    <t>constraction_period</t>
+  </si>
+  <si>
+    <t>from</t>
   </si>
 </sst>
 </file>
@@ -2037,13 +2092,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C554650E-8343-5041-B44F-DCAB2BC644D3}">
-  <dimension ref="A1:M121"/>
+  <dimension ref="A1:P121"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L2" sqref="L2"/>
+      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2055,9 +2110,12 @@
     <col min="6" max="6" width="27.1640625" customWidth="1"/>
     <col min="7" max="7" width="11.83203125" customWidth="1"/>
     <col min="12" max="12" width="41.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.83203125" customWidth="1"/>
+    <col min="15" max="15" width="11.6640625" customWidth="1"/>
+    <col min="16" max="16" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2097,8 +2155,17 @@
       <c r="M1" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N1" t="s">
+        <v>542</v>
+      </c>
+      <c r="O1" t="s">
+        <v>543</v>
+      </c>
+      <c r="P1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -2117,7 +2184,7 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2">
         <v>134</v>
       </c>
       <c r="H2">
@@ -2126,7 +2193,7 @@
       <c r="I2" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2">
         <v>2530</v>
       </c>
       <c r="K2">
@@ -2138,8 +2205,20 @@
       <c r="M2" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N2">
+        <f>J2/G2</f>
+        <v>18.880597014925375</v>
+      </c>
+      <c r="O2">
+        <f>G2/J2</f>
+        <v>5.2964426877470355E-2</v>
+      </c>
+      <c r="P2">
+        <f>_xlfn.XLOOKUP(K2,Sheet2!C:C,Sheet2!A:A,"",-1,1)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -2159,7 +2238,7 @@
       <c r="F3" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3">
         <v>98</v>
       </c>
       <c r="H3">
@@ -2168,7 +2247,7 @@
       <c r="I3" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3">
         <v>2255</v>
       </c>
       <c r="K3">
@@ -2180,13 +2259,25 @@
       <c r="M3" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N3">
+        <f t="shared" ref="N3:N66" si="0">J3/G3</f>
+        <v>23.010204081632654</v>
+      </c>
+      <c r="O3">
+        <f t="shared" ref="O3:O66" si="1">G3/J3</f>
+        <v>4.3458980044345896E-2</v>
+      </c>
+      <c r="P3">
+        <f>_xlfn.XLOOKUP(K3,Sheet2!C:C,Sheet2!A:A,"",-1,1)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>22</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:B67" si="0">B3+1</f>
+        <f t="shared" ref="B4:B67" si="2">B3+1</f>
         <v>3</v>
       </c>
       <c r="C4" t="s">
@@ -2201,7 +2292,7 @@
       <c r="F4" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4">
         <v>68</v>
       </c>
       <c r="H4">
@@ -2210,7 +2301,7 @@
       <c r="I4" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4">
         <v>1945</v>
       </c>
       <c r="K4">
@@ -2222,13 +2313,25 @@
       <c r="M4" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N4">
+        <f t="shared" si="0"/>
+        <v>28.602941176470587</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="1"/>
+        <v>3.4961439588688949E-2</v>
+      </c>
+      <c r="P4">
+        <f>_xlfn.XLOOKUP(K4,Sheet2!C:C,Sheet2!A:A,"",-1,1)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>27</v>
       </c>
       <c r="B5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="C5" t="s">
@@ -2243,7 +2346,7 @@
       <c r="F5" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5">
         <v>134</v>
       </c>
       <c r="H5">
@@ -2252,7 +2355,7 @@
       <c r="I5" t="s">
         <v>29</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5">
         <v>5590</v>
       </c>
       <c r="K5">
@@ -2264,13 +2367,25 @@
       <c r="M5" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N5">
+        <f t="shared" si="0"/>
+        <v>41.71641791044776</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="1"/>
+        <v>2.3971377459749553E-2</v>
+      </c>
+      <c r="P5">
+        <f>_xlfn.XLOOKUP(K5,Sheet2!C:C,Sheet2!A:A,"",-1,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>32</v>
       </c>
       <c r="B6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="C6" t="s">
@@ -2285,7 +2400,7 @@
       <c r="F6" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6">
         <v>94</v>
       </c>
       <c r="H6">
@@ -2294,7 +2409,7 @@
       <c r="I6" t="s">
         <v>35</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6">
         <v>2360</v>
       </c>
       <c r="K6">
@@ -2306,13 +2421,25 @@
       <c r="M6" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N6">
+        <f t="shared" si="0"/>
+        <v>25.106382978723403</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="1"/>
+        <v>3.9830508474576268E-2</v>
+      </c>
+      <c r="P6">
+        <f>_xlfn.XLOOKUP(K6,Sheet2!C:C,Sheet2!A:A,"",-1,1)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>39</v>
       </c>
       <c r="B7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="C7" t="s">
@@ -2327,7 +2454,7 @@
       <c r="F7" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7">
         <v>98</v>
       </c>
       <c r="H7">
@@ -2336,7 +2463,7 @@
       <c r="I7" t="s">
         <v>41</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7">
         <v>4424</v>
       </c>
       <c r="K7">
@@ -2348,13 +2475,25 @@
       <c r="M7" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7">
+        <f t="shared" si="0"/>
+        <v>45.142857142857146</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="1"/>
+        <v>2.2151898734177215E-2</v>
+      </c>
+      <c r="P7">
+        <f>_xlfn.XLOOKUP(K7,Sheet2!C:C,Sheet2!A:A,"",-1,1)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>43</v>
       </c>
       <c r="B8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="C8" t="s">
@@ -2369,7 +2508,7 @@
       <c r="F8" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8">
         <v>75</v>
       </c>
       <c r="H8">
@@ -2378,7 +2517,7 @@
       <c r="I8" t="s">
         <v>46</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8">
         <v>2780</v>
       </c>
       <c r="K8">
@@ -2390,13 +2529,25 @@
       <c r="M8" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8">
+        <f t="shared" si="0"/>
+        <v>37.06666666666667</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="1"/>
+        <v>2.6978417266187049E-2</v>
+      </c>
+      <c r="P8">
+        <f>_xlfn.XLOOKUP(K8,Sheet2!C:C,Sheet2!A:A,"",-1,1)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>48</v>
       </c>
       <c r="B9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="C9" t="s">
@@ -2411,7 +2562,7 @@
       <c r="F9" t="s">
         <v>50</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9">
         <v>92</v>
       </c>
       <c r="H9">
@@ -2420,7 +2571,7 @@
       <c r="I9" t="s">
         <v>51</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9">
         <v>3370</v>
       </c>
       <c r="K9">
@@ -2432,13 +2583,25 @@
       <c r="M9" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9">
+        <f t="shared" si="0"/>
+        <v>36.630434782608695</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="1"/>
+        <v>2.7299703264094956E-2</v>
+      </c>
+      <c r="P9">
+        <f>_xlfn.XLOOKUP(K9,Sheet2!C:C,Sheet2!A:A,"",-1,1)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>52</v>
       </c>
       <c r="B10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="C10" t="s">
@@ -2453,7 +2616,7 @@
       <c r="F10" t="s">
         <v>54</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10">
         <v>151</v>
       </c>
       <c r="H10">
@@ -2462,7 +2625,7 @@
       <c r="I10" t="s">
         <v>55</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10">
         <v>7350</v>
       </c>
       <c r="K10">
@@ -2474,13 +2637,25 @@
       <c r="M10" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10">
+        <f t="shared" si="0"/>
+        <v>48.675496688741724</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="1"/>
+        <v>2.0544217687074831E-2</v>
+      </c>
+      <c r="P10">
+        <f>_xlfn.XLOOKUP(K10,Sheet2!C:C,Sheet2!A:A,"",-1,1)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>57</v>
       </c>
       <c r="B11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="C11" t="s">
@@ -2495,7 +2670,7 @@
       <c r="F11" t="s">
         <v>59</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11">
         <v>97</v>
       </c>
       <c r="H11">
@@ -2504,7 +2679,7 @@
       <c r="I11" t="s">
         <v>60</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11">
         <v>4320</v>
       </c>
       <c r="K11">
@@ -2516,13 +2691,25 @@
       <c r="M11" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11">
+        <f t="shared" si="0"/>
+        <v>44.536082474226802</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="1"/>
+        <v>2.2453703703703705E-2</v>
+      </c>
+      <c r="P11">
+        <f>_xlfn.XLOOKUP(K11,Sheet2!C:C,Sheet2!A:A,"",-1,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>62</v>
       </c>
       <c r="B12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="C12" t="s">
@@ -2537,7 +2724,7 @@
       <c r="F12" t="s">
         <v>64</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12">
         <v>72</v>
       </c>
       <c r="H12">
@@ -2546,7 +2733,7 @@
       <c r="I12" t="s">
         <v>65</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12">
         <v>2860</v>
       </c>
       <c r="K12">
@@ -2558,13 +2745,25 @@
       <c r="M12" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12">
+        <f t="shared" si="0"/>
+        <v>39.722222222222221</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="1"/>
+        <v>2.5174825174825177E-2</v>
+      </c>
+      <c r="P12">
+        <f>_xlfn.XLOOKUP(K12,Sheet2!C:C,Sheet2!A:A,"",-1,1)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>67</v>
       </c>
       <c r="B13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="C13" t="s">
@@ -2579,7 +2778,7 @@
       <c r="F13" t="s">
         <v>69</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13">
         <v>70</v>
       </c>
       <c r="H13">
@@ -2588,7 +2787,7 @@
       <c r="I13" t="s">
         <v>65</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13">
         <v>2860</v>
       </c>
       <c r="K13">
@@ -2600,13 +2799,25 @@
       <c r="M13" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13">
+        <f t="shared" si="0"/>
+        <v>40.857142857142854</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="1"/>
+        <v>2.4475524475524476E-2</v>
+      </c>
+      <c r="P13">
+        <f>_xlfn.XLOOKUP(K13,Sheet2!C:C,Sheet2!A:A,"",-1,1)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>72</v>
       </c>
       <c r="B14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="C14" t="s">
@@ -2621,7 +2832,7 @@
       <c r="F14" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14">
         <v>89</v>
       </c>
       <c r="H14">
@@ -2630,7 +2841,7 @@
       <c r="I14" t="s">
         <v>74</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14">
         <v>2740</v>
       </c>
       <c r="K14">
@@ -2642,13 +2853,25 @@
       <c r="M14" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14">
+        <f t="shared" si="0"/>
+        <v>30.786516853932586</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="1"/>
+        <v>3.2481751824817516E-2</v>
+      </c>
+      <c r="P14">
+        <f>_xlfn.XLOOKUP(K14,Sheet2!C:C,Sheet2!A:A,"",-1,1)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>77</v>
       </c>
       <c r="B15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="C15" t="s">
@@ -2663,7 +2886,7 @@
       <c r="F15" t="s">
         <v>69</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15">
         <v>70</v>
       </c>
       <c r="H15">
@@ -2672,7 +2895,7 @@
       <c r="I15" t="s">
         <v>79</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J15">
         <v>3180</v>
       </c>
       <c r="K15">
@@ -2684,13 +2907,25 @@
       <c r="M15" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15">
+        <f t="shared" si="0"/>
+        <v>45.428571428571431</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="1"/>
+        <v>2.20125786163522E-2</v>
+      </c>
+      <c r="P15">
+        <f>_xlfn.XLOOKUP(K15,Sheet2!C:C,Sheet2!A:A,"",-1,1)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>81</v>
       </c>
       <c r="B16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="C16" t="s">
@@ -2705,7 +2940,7 @@
       <c r="F16" t="s">
         <v>83</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16">
         <v>59</v>
       </c>
       <c r="H16">
@@ -2714,7 +2949,7 @@
       <c r="I16" t="s">
         <v>84</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J16">
         <v>2230</v>
       </c>
       <c r="K16">
@@ -2726,13 +2961,25 @@
       <c r="M16" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N16">
+        <f t="shared" si="0"/>
+        <v>37.796610169491522</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="1"/>
+        <v>2.6457399103139014E-2</v>
+      </c>
+      <c r="P16">
+        <f>_xlfn.XLOOKUP(K16,Sheet2!C:C,Sheet2!A:A,"",-1,1)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>86</v>
       </c>
       <c r="B17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="C17" t="s">
@@ -2747,7 +2994,7 @@
       <c r="F17" t="s">
         <v>69</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17">
         <v>70</v>
       </c>
       <c r="H17">
@@ -2756,7 +3003,7 @@
       <c r="I17" t="s">
         <v>88</v>
       </c>
-      <c r="J17" s="1">
+      <c r="J17">
         <v>1735</v>
       </c>
       <c r="K17">
@@ -2768,13 +3015,25 @@
       <c r="M17" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N17">
+        <f t="shared" si="0"/>
+        <v>24.785714285714285</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="1"/>
+        <v>4.0345821325648415E-2</v>
+      </c>
+      <c r="P17">
+        <f>_xlfn.XLOOKUP(K17,Sheet2!C:C,Sheet2!A:A,"",-1,1)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>90</v>
       </c>
       <c r="B18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="C18" t="s">
@@ -2789,7 +3048,7 @@
       <c r="F18" t="s">
         <v>92</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18">
         <v>104</v>
       </c>
       <c r="H18">
@@ -2798,7 +3057,7 @@
       <c r="I18" t="s">
         <v>93</v>
       </c>
-      <c r="J18" s="1">
+      <c r="J18">
         <v>3970</v>
       </c>
       <c r="K18">
@@ -2810,13 +3069,25 @@
       <c r="M18" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N18">
+        <f t="shared" si="0"/>
+        <v>38.17307692307692</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="1"/>
+        <v>2.6196473551637279E-2</v>
+      </c>
+      <c r="P18">
+        <f>_xlfn.XLOOKUP(K18,Sheet2!C:C,Sheet2!A:A,"",-1,1)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>95</v>
       </c>
       <c r="B19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="C19" t="s">
@@ -2831,7 +3102,7 @@
       <c r="F19" t="s">
         <v>97</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19">
         <v>95</v>
       </c>
       <c r="H19">
@@ -2840,7 +3111,7 @@
       <c r="I19" t="s">
         <v>98</v>
       </c>
-      <c r="J19" s="1">
+      <c r="J19">
         <v>3220</v>
       </c>
       <c r="K19">
@@ -2852,13 +3123,25 @@
       <c r="M19" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N19">
+        <f t="shared" si="0"/>
+        <v>33.89473684210526</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="1"/>
+        <v>2.9503105590062112E-2</v>
+      </c>
+      <c r="P19">
+        <f>_xlfn.XLOOKUP(K19,Sheet2!C:C,Sheet2!A:A,"",-1,1)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>100</v>
       </c>
       <c r="B20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="C20" t="s">
@@ -2873,7 +3156,7 @@
       <c r="F20" t="s">
         <v>102</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20">
         <v>123</v>
       </c>
       <c r="H20">
@@ -2882,7 +3165,7 @@
       <c r="I20" t="s">
         <v>103</v>
       </c>
-      <c r="J20" s="1">
+      <c r="J20">
         <v>4500</v>
       </c>
       <c r="K20">
@@ -2894,13 +3177,25 @@
       <c r="M20" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N20">
+        <f t="shared" si="0"/>
+        <v>36.585365853658537</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="1"/>
+        <v>2.7333333333333334E-2</v>
+      </c>
+      <c r="P20">
+        <f>_xlfn.XLOOKUP(K20,Sheet2!C:C,Sheet2!A:A,"",-1,1)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>106</v>
       </c>
       <c r="B21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="C21" t="s">
@@ -2915,7 +3210,7 @@
       <c r="F21" t="s">
         <v>108</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21">
         <v>81</v>
       </c>
       <c r="H21">
@@ -2924,7 +3219,7 @@
       <c r="I21" t="s">
         <v>109</v>
       </c>
-      <c r="J21" s="1">
+      <c r="J21">
         <v>1785</v>
       </c>
       <c r="K21">
@@ -2936,13 +3231,25 @@
       <c r="M21" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N21">
+        <f t="shared" si="0"/>
+        <v>22.037037037037038</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="1"/>
+        <v>4.53781512605042E-2</v>
+      </c>
+      <c r="P21">
+        <f>_xlfn.XLOOKUP(K21,Sheet2!C:C,Sheet2!A:A,"",-1,1)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>111</v>
       </c>
       <c r="B22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="C22" t="s">
@@ -2957,7 +3264,7 @@
       <c r="F22" t="s">
         <v>14</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22">
         <v>134</v>
       </c>
       <c r="H22">
@@ -2966,7 +3273,7 @@
       <c r="I22" t="s">
         <v>113</v>
       </c>
-      <c r="J22" s="1">
+      <c r="J22">
         <v>4135</v>
       </c>
       <c r="K22">
@@ -2978,13 +3285,25 @@
       <c r="M22" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N22">
+        <f t="shared" si="0"/>
+        <v>30.85820895522388</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="1"/>
+        <v>3.2406287787182589E-2</v>
+      </c>
+      <c r="P22">
+        <f>_xlfn.XLOOKUP(K22,Sheet2!C:C,Sheet2!A:A,"",-1,1)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>116</v>
       </c>
       <c r="B23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="C23" t="s">
@@ -2999,7 +3318,7 @@
       <c r="F23" t="s">
         <v>118</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23">
         <v>100</v>
       </c>
       <c r="H23">
@@ -3008,7 +3327,7 @@
       <c r="I23" t="s">
         <v>119</v>
       </c>
-      <c r="J23" s="1">
+      <c r="J23">
         <v>3980</v>
       </c>
       <c r="K23">
@@ -3020,1777 +3339,2293 @@
       <c r="M23" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N23">
+        <f t="shared" si="0"/>
+        <v>39.799999999999997</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="1"/>
+        <v>2.5125628140703519E-2</v>
+      </c>
+      <c r="P23">
+        <f>_xlfn.XLOOKUP(K23,Sheet2!C:C,Sheet2!A:A,"",-1,1)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>121</v>
       </c>
       <c r="B24">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" t="s">
+        <v>115</v>
+      </c>
+      <c r="E24" t="s">
+        <v>122</v>
+      </c>
+      <c r="F24" t="s">
+        <v>123</v>
+      </c>
+      <c r="G24">
+        <v>62</v>
+      </c>
+      <c r="H24">
+        <v>2.5</v>
+      </c>
+      <c r="I24" t="s">
+        <v>124</v>
+      </c>
+      <c r="J24">
+        <v>2127</v>
+      </c>
+      <c r="K24">
+        <v>2010</v>
+      </c>
+      <c r="L24" t="s">
+        <v>125</v>
+      </c>
+      <c r="M24" t="s">
+        <v>217</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="0"/>
+        <v>34.306451612903224</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="1"/>
+        <v>2.9149036201222379E-2</v>
+      </c>
+      <c r="P24">
+        <f>_xlfn.XLOOKUP(K24,Sheet2!C:C,Sheet2!A:A,"",-1,1)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>126</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" t="s">
+        <v>115</v>
+      </c>
+      <c r="E25" t="s">
+        <v>127</v>
+      </c>
+      <c r="F25" t="s">
+        <v>128</v>
+      </c>
+      <c r="G25">
+        <v>88</v>
+      </c>
+      <c r="H25">
+        <v>3.5</v>
+      </c>
+      <c r="I25" t="s">
+        <v>129</v>
+      </c>
+      <c r="J25">
+        <v>2766</v>
+      </c>
+      <c r="K25">
+        <v>2018</v>
+      </c>
+      <c r="L25" t="s">
+        <v>130</v>
+      </c>
+      <c r="M25" t="s">
+        <v>217</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="0"/>
+        <v>31.431818181818183</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="1"/>
+        <v>3.1814895155459148E-2</v>
+      </c>
+      <c r="P25">
+        <f>_xlfn.XLOOKUP(K25,Sheet2!C:C,Sheet2!A:A,"",-1,1)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>132</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" t="s">
+        <v>115</v>
+      </c>
+      <c r="E26" t="s">
+        <v>133</v>
+      </c>
+      <c r="F26" t="s">
+        <v>134</v>
+      </c>
+      <c r="G26">
+        <v>86</v>
+      </c>
+      <c r="H26">
+        <v>2.5</v>
+      </c>
+      <c r="I26" t="s">
+        <v>135</v>
+      </c>
+      <c r="J26">
+        <v>2610</v>
+      </c>
+      <c r="K26">
+        <v>1993</v>
+      </c>
+      <c r="L26" t="s">
+        <v>136</v>
+      </c>
+      <c r="M26" t="s">
+        <v>217</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="0"/>
+        <v>30.348837209302324</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="1"/>
+        <v>3.2950191570881228E-2</v>
+      </c>
+      <c r="P26">
+        <f>_xlfn.XLOOKUP(K26,Sheet2!C:C,Sheet2!A:A,"",-1,1)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>137</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" t="s">
+        <v>115</v>
+      </c>
+      <c r="E27" t="s">
+        <v>138</v>
+      </c>
+      <c r="F27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27">
+        <v>82</v>
+      </c>
+      <c r="H27">
+        <v>3.5</v>
+      </c>
+      <c r="I27" t="s">
+        <v>139</v>
+      </c>
+      <c r="J27">
+        <v>2900</v>
+      </c>
+      <c r="K27">
+        <v>1995</v>
+      </c>
+      <c r="L27" t="s">
+        <v>140</v>
+      </c>
+      <c r="M27" t="s">
+        <v>217</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="0"/>
+        <v>35.365853658536587</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="1"/>
+        <v>2.8275862068965516E-2</v>
+      </c>
+      <c r="P27">
+        <f>_xlfn.XLOOKUP(K27,Sheet2!C:C,Sheet2!A:A,"",-1,1)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>142</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" t="s">
+        <v>115</v>
+      </c>
+      <c r="E28" t="s">
+        <v>143</v>
+      </c>
+      <c r="F28" t="s">
+        <v>134</v>
+      </c>
+      <c r="G28">
+        <v>86</v>
+      </c>
+      <c r="H28">
+        <v>4.5</v>
+      </c>
+      <c r="I28" t="s">
+        <v>144</v>
+      </c>
+      <c r="J28">
+        <v>2626</v>
+      </c>
+      <c r="K28">
+        <v>1968</v>
+      </c>
+      <c r="L28" t="s">
+        <v>145</v>
+      </c>
+      <c r="M28" t="s">
+        <v>217</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="0"/>
+        <v>30.534883720930232</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="1"/>
+        <v>3.2749428789032753E-2</v>
+      </c>
+      <c r="P28">
+        <f>_xlfn.XLOOKUP(K28,Sheet2!C:C,Sheet2!A:A,"",-1,1)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>146</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" t="s">
+        <v>115</v>
+      </c>
+      <c r="E29" t="s">
+        <v>147</v>
+      </c>
+      <c r="F29" t="s">
+        <v>134</v>
+      </c>
+      <c r="G29">
+        <v>86</v>
+      </c>
+      <c r="H29">
+        <v>3</v>
+      </c>
+      <c r="I29" t="s">
+        <v>148</v>
+      </c>
+      <c r="J29">
+        <v>3590</v>
+      </c>
+      <c r="K29">
+        <v>1943</v>
+      </c>
+      <c r="L29" t="s">
+        <v>149</v>
+      </c>
+      <c r="M29" t="s">
+        <v>217</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="0"/>
+        <v>41.744186046511629</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="1"/>
+        <v>2.3955431754874652E-2</v>
+      </c>
+      <c r="P29">
+        <f>_xlfn.XLOOKUP(K29,Sheet2!C:C,Sheet2!A:A,"",-1,1)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>150</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="C30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" t="s">
+        <v>115</v>
+      </c>
+      <c r="E30" t="s">
+        <v>151</v>
+      </c>
+      <c r="F30" t="s">
+        <v>118</v>
+      </c>
+      <c r="G30">
+        <v>100</v>
+      </c>
+      <c r="H30">
+        <v>4.5</v>
+      </c>
+      <c r="I30" t="s">
+        <v>152</v>
+      </c>
+      <c r="J30">
+        <v>2300</v>
+      </c>
+      <c r="K30">
+        <v>1993</v>
+      </c>
+      <c r="L30" t="s">
+        <v>153</v>
+      </c>
+      <c r="M30" t="s">
+        <v>217</v>
+      </c>
+      <c r="N30">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C24" t="s">
+      <c r="O30">
+        <f t="shared" si="1"/>
+        <v>4.3478260869565216E-2</v>
+      </c>
+      <c r="P30">
+        <f>_xlfn.XLOOKUP(K30,Sheet2!C:C,Sheet2!A:A,"",-1,1)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>154</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="C31" t="s">
         <v>8</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D31" t="s">
         <v>115</v>
       </c>
-      <c r="E24" t="s">
-        <v>122</v>
-      </c>
-      <c r="F24" t="s">
-        <v>123</v>
-      </c>
-      <c r="G24" s="1">
+      <c r="E31" t="s">
+        <v>155</v>
+      </c>
+      <c r="F31" t="s">
+        <v>156</v>
+      </c>
+      <c r="G31">
+        <v>63</v>
+      </c>
+      <c r="H31">
+        <v>2.5</v>
+      </c>
+      <c r="I31" t="s">
+        <v>157</v>
+      </c>
+      <c r="J31">
+        <v>2150</v>
+      </c>
+      <c r="K31">
+        <v>2009</v>
+      </c>
+      <c r="L31" t="s">
+        <v>158</v>
+      </c>
+      <c r="M31" t="s">
+        <v>217</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="0"/>
+        <v>34.126984126984127</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="1"/>
+        <v>2.9302325581395349E-2</v>
+      </c>
+      <c r="P31">
+        <f>_xlfn.XLOOKUP(K31,Sheet2!C:C,Sheet2!A:A,"",-1,1)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>159</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="C32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" t="s">
+        <v>115</v>
+      </c>
+      <c r="E32" t="s">
+        <v>160</v>
+      </c>
+      <c r="F32" t="s">
+        <v>24</v>
+      </c>
+      <c r="G32">
+        <v>68</v>
+      </c>
+      <c r="H32">
+        <v>2.5</v>
+      </c>
+      <c r="I32" t="s">
+        <v>161</v>
+      </c>
+      <c r="J32">
+        <v>2020</v>
+      </c>
+      <c r="K32">
+        <v>1982</v>
+      </c>
+      <c r="L32" t="s">
+        <v>162</v>
+      </c>
+      <c r="M32" t="s">
+        <v>217</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="0"/>
+        <v>29.705882352941178</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="1"/>
+        <v>3.3663366336633666E-2</v>
+      </c>
+      <c r="P32">
+        <f>_xlfn.XLOOKUP(K32,Sheet2!C:C,Sheet2!A:A,"",-1,1)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>164</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="C33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" t="s">
+        <v>163</v>
+      </c>
+      <c r="E33" t="s">
+        <v>165</v>
+      </c>
+      <c r="F33" t="s">
+        <v>166</v>
+      </c>
+      <c r="G33">
+        <v>90</v>
+      </c>
+      <c r="H33">
+        <v>3.5</v>
+      </c>
+      <c r="I33" t="s">
+        <v>167</v>
+      </c>
+      <c r="J33">
+        <v>3925</v>
+      </c>
+      <c r="K33">
+        <v>1911</v>
+      </c>
+      <c r="L33" t="s">
+        <v>168</v>
+      </c>
+      <c r="M33" t="s">
+        <v>217</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="0"/>
+        <v>43.611111111111114</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="1"/>
+        <v>2.2929936305732482E-2</v>
+      </c>
+      <c r="P33">
+        <f>_xlfn.XLOOKUP(K33,Sheet2!C:C,Sheet2!A:A,"",-1,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>169</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="C34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" t="s">
+        <v>163</v>
+      </c>
+      <c r="E34" t="s">
+        <v>170</v>
+      </c>
+      <c r="F34" t="s">
+        <v>171</v>
+      </c>
+      <c r="G34">
+        <v>140</v>
+      </c>
+      <c r="H34">
+        <v>5.5</v>
+      </c>
+      <c r="I34" t="s">
+        <v>172</v>
+      </c>
+      <c r="J34">
+        <v>2798</v>
+      </c>
+      <c r="K34">
+        <v>2008</v>
+      </c>
+      <c r="L34" t="s">
+        <v>173</v>
+      </c>
+      <c r="M34" t="s">
+        <v>217</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="0"/>
+        <v>19.985714285714284</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="1"/>
+        <v>5.0035739814152963E-2</v>
+      </c>
+      <c r="P34">
+        <f>_xlfn.XLOOKUP(K34,Sheet2!C:C,Sheet2!A:A,"",-1,1)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>174</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="C35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" t="s">
+        <v>163</v>
+      </c>
+      <c r="E35" t="s">
+        <v>175</v>
+      </c>
+      <c r="F35" t="s">
+        <v>176</v>
+      </c>
+      <c r="G35">
+        <v>126</v>
+      </c>
+      <c r="H35">
+        <v>3.5</v>
+      </c>
+      <c r="I35" t="s">
+        <v>177</v>
+      </c>
+      <c r="J35">
+        <v>3140</v>
+      </c>
+      <c r="K35">
+        <v>2025</v>
+      </c>
+      <c r="L35" t="s">
+        <v>178</v>
+      </c>
+      <c r="M35" t="s">
+        <v>217</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="0"/>
+        <v>24.920634920634921</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="1"/>
+        <v>4.0127388535031845E-2</v>
+      </c>
+      <c r="P35">
+        <f>_xlfn.XLOOKUP(K35,Sheet2!C:C,Sheet2!A:A,"",-1,1)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>179</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="C36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" t="s">
+        <v>163</v>
+      </c>
+      <c r="E36" t="s">
+        <v>180</v>
+      </c>
+      <c r="F36" t="s">
+        <v>181</v>
+      </c>
+      <c r="G36">
+        <v>109</v>
+      </c>
+      <c r="H36">
+        <v>4.5</v>
+      </c>
+      <c r="I36" t="s">
+        <v>182</v>
+      </c>
+      <c r="J36">
+        <v>4660</v>
+      </c>
+      <c r="K36">
+        <v>2025</v>
+      </c>
+      <c r="L36" t="s">
+        <v>183</v>
+      </c>
+      <c r="M36" t="s">
+        <v>217</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="0"/>
+        <v>42.752293577981654</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="1"/>
+        <v>2.3390557939914163E-2</v>
+      </c>
+      <c r="P36">
+        <f>_xlfn.XLOOKUP(K36,Sheet2!C:C,Sheet2!A:A,"",-1,1)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>184</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="C37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" t="s">
+        <v>163</v>
+      </c>
+      <c r="E37" t="s">
+        <v>185</v>
+      </c>
+      <c r="F37" t="s">
+        <v>186</v>
+      </c>
+      <c r="G37">
+        <v>105</v>
+      </c>
+      <c r="H37">
+        <v>4.5</v>
+      </c>
+      <c r="I37" t="s">
+        <v>187</v>
+      </c>
+      <c r="J37">
+        <v>2770</v>
+      </c>
+      <c r="K37">
+        <v>2025</v>
+      </c>
+      <c r="L37" t="s">
+        <v>188</v>
+      </c>
+      <c r="M37" t="s">
+        <v>217</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="0"/>
+        <v>26.38095238095238</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="1"/>
+        <v>3.7906137184115521E-2</v>
+      </c>
+      <c r="P37">
+        <f>_xlfn.XLOOKUP(K37,Sheet2!C:C,Sheet2!A:A,"",-1,1)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>189</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="C38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" t="s">
+        <v>163</v>
+      </c>
+      <c r="E38" t="s">
+        <v>190</v>
+      </c>
+      <c r="F38" t="s">
+        <v>191</v>
+      </c>
+      <c r="G38">
+        <v>110</v>
+      </c>
+      <c r="H38">
+        <v>4.5</v>
+      </c>
+      <c r="I38" t="s">
+        <v>192</v>
+      </c>
+      <c r="J38">
+        <v>2890</v>
+      </c>
+      <c r="K38">
+        <v>2025</v>
+      </c>
+      <c r="L38" t="s">
+        <v>188</v>
+      </c>
+      <c r="M38" t="s">
+        <v>217</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="0"/>
+        <v>26.272727272727273</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="1"/>
+        <v>3.8062283737024222E-2</v>
+      </c>
+      <c r="P38">
+        <f>_xlfn.XLOOKUP(K38,Sheet2!C:C,Sheet2!A:A,"",-1,1)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>193</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="C39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" t="s">
+        <v>163</v>
+      </c>
+      <c r="E39" t="s">
+        <v>194</v>
+      </c>
+      <c r="F39" t="s">
+        <v>128</v>
+      </c>
+      <c r="G39">
+        <v>88</v>
+      </c>
+      <c r="H39">
+        <v>4.5</v>
+      </c>
+      <c r="I39" t="s">
+        <v>195</v>
+      </c>
+      <c r="J39">
+        <v>3400</v>
+      </c>
+      <c r="K39">
+        <v>2025</v>
+      </c>
+      <c r="L39" t="s">
+        <v>196</v>
+      </c>
+      <c r="M39" t="s">
+        <v>217</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="0"/>
+        <v>38.636363636363633</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="1"/>
+        <v>2.5882352941176471E-2</v>
+      </c>
+      <c r="P39">
+        <f>_xlfn.XLOOKUP(K39,Sheet2!C:C,Sheet2!A:A,"",-1,1)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>197</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="C40" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" t="s">
+        <v>163</v>
+      </c>
+      <c r="E40" t="s">
+        <v>198</v>
+      </c>
+      <c r="F40" t="s">
+        <v>199</v>
+      </c>
+      <c r="G40">
+        <v>58</v>
+      </c>
+      <c r="H40">
+        <v>2.5</v>
+      </c>
+      <c r="I40" t="s">
+        <v>200</v>
+      </c>
+      <c r="J40">
+        <v>2990</v>
+      </c>
+      <c r="K40">
+        <v>2023</v>
+      </c>
+      <c r="L40" t="s">
+        <v>201</v>
+      </c>
+      <c r="M40" t="s">
+        <v>217</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="0"/>
+        <v>51.551724137931032</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="1"/>
+        <v>1.9397993311036789E-2</v>
+      </c>
+      <c r="P40">
+        <f>_xlfn.XLOOKUP(K40,Sheet2!C:C,Sheet2!A:A,"",-1,1)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>203</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="C41" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" t="s">
+        <v>163</v>
+      </c>
+      <c r="E41" t="s">
+        <v>204</v>
+      </c>
+      <c r="F41" t="s">
+        <v>191</v>
+      </c>
+      <c r="G41">
+        <v>110</v>
+      </c>
+      <c r="H41">
+        <v>4.5</v>
+      </c>
+      <c r="I41" t="s">
+        <v>205</v>
+      </c>
+      <c r="J41">
+        <v>3650</v>
+      </c>
+      <c r="K41">
+        <v>1969</v>
+      </c>
+      <c r="L41" t="s">
+        <v>206</v>
+      </c>
+      <c r="M41" t="s">
+        <v>217</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="0"/>
+        <v>33.18181818181818</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="1"/>
+        <v>3.0136986301369864E-2</v>
+      </c>
+      <c r="P41">
+        <f>_xlfn.XLOOKUP(K41,Sheet2!C:C,Sheet2!A:A,"",-1,1)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>218</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="C42" t="s">
+        <v>219</v>
+      </c>
+      <c r="D42" t="s">
+        <v>220</v>
+      </c>
+      <c r="E42" t="s">
+        <v>221</v>
+      </c>
+      <c r="F42" t="s">
+        <v>222</v>
+      </c>
+      <c r="G42">
+        <v>71</v>
+      </c>
+      <c r="H42">
+        <v>3.5</v>
+      </c>
+      <c r="I42" t="s">
+        <v>223</v>
+      </c>
+      <c r="J42">
+        <v>2040</v>
+      </c>
+      <c r="K42">
+        <v>1969</v>
+      </c>
+      <c r="L42" t="s">
+        <v>224</v>
+      </c>
+      <c r="M42" t="s">
+        <v>384</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="0"/>
+        <v>28.732394366197184</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="1"/>
+        <v>3.4803921568627452E-2</v>
+      </c>
+      <c r="P42">
+        <f>_xlfn.XLOOKUP(K42,Sheet2!C:C,Sheet2!A:A,"",-1,1)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>225</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="C43" t="s">
+        <v>219</v>
+      </c>
+      <c r="D43" t="s">
+        <v>220</v>
+      </c>
+      <c r="E43" t="s">
+        <v>226</v>
+      </c>
+      <c r="F43" t="s">
+        <v>227</v>
+      </c>
+      <c r="G43">
+        <v>76</v>
+      </c>
+      <c r="H43">
+        <v>3.5</v>
+      </c>
+      <c r="I43" t="s">
+        <v>228</v>
+      </c>
+      <c r="J43">
+        <v>2755</v>
+      </c>
+      <c r="K43">
+        <v>1963</v>
+      </c>
+      <c r="L43" t="s">
+        <v>229</v>
+      </c>
+      <c r="M43" t="s">
+        <v>384</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="0"/>
+        <v>36.25</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="1"/>
+        <v>2.7586206896551724E-2</v>
+      </c>
+      <c r="P43">
+        <f>_xlfn.XLOOKUP(K43,Sheet2!C:C,Sheet2!A:A,"",-1,1)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>230</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
+      <c r="C44" t="s">
+        <v>219</v>
+      </c>
+      <c r="D44" t="s">
+        <v>220</v>
+      </c>
+      <c r="E44" t="s">
+        <v>231</v>
+      </c>
+      <c r="F44" t="s">
+        <v>24</v>
+      </c>
+      <c r="G44">
+        <v>68</v>
+      </c>
+      <c r="H44">
+        <v>3.5</v>
+      </c>
+      <c r="I44" t="s">
+        <v>232</v>
+      </c>
+      <c r="J44">
+        <v>1760</v>
+      </c>
+      <c r="K44">
+        <v>1960</v>
+      </c>
+      <c r="L44" t="s">
+        <v>233</v>
+      </c>
+      <c r="M44" t="s">
+        <v>384</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="0"/>
+        <v>25.882352941176471</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="1"/>
+        <v>3.8636363636363635E-2</v>
+      </c>
+      <c r="P44">
+        <f>_xlfn.XLOOKUP(K44,Sheet2!C:C,Sheet2!A:A,"",-1,1)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>234</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="C45" t="s">
+        <v>219</v>
+      </c>
+      <c r="D45" t="s">
+        <v>220</v>
+      </c>
+      <c r="E45" t="s">
+        <v>235</v>
+      </c>
+      <c r="F45" t="s">
+        <v>236</v>
+      </c>
+      <c r="G45">
+        <v>83</v>
+      </c>
+      <c r="H45">
+        <v>3.5</v>
+      </c>
+      <c r="I45" t="s">
+        <v>237</v>
+      </c>
+      <c r="J45">
+        <v>2198</v>
+      </c>
+      <c r="K45">
+        <v>2012</v>
+      </c>
+      <c r="L45" t="s">
+        <v>238</v>
+      </c>
+      <c r="M45" t="s">
+        <v>384</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="0"/>
+        <v>26.481927710843372</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="1"/>
+        <v>3.7761601455868973E-2</v>
+      </c>
+      <c r="P45">
+        <f>_xlfn.XLOOKUP(K45,Sheet2!C:C,Sheet2!A:A,"",-1,1)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>239</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="C46" t="s">
+        <v>219</v>
+      </c>
+      <c r="D46" t="s">
+        <v>220</v>
+      </c>
+      <c r="E46" t="s">
+        <v>240</v>
+      </c>
+      <c r="F46" t="s">
+        <v>207</v>
+      </c>
+      <c r="G46">
+        <v>77</v>
+      </c>
+      <c r="H46">
+        <v>3</v>
+      </c>
+      <c r="I46" t="s">
+        <v>241</v>
+      </c>
+      <c r="J46">
+        <v>2170</v>
+      </c>
+      <c r="K46">
+        <v>2001</v>
+      </c>
+      <c r="L46" t="s">
+        <v>242</v>
+      </c>
+      <c r="M46" t="s">
+        <v>384</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="0"/>
+        <v>28.181818181818183</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="1"/>
+        <v>3.5483870967741936E-2</v>
+      </c>
+      <c r="P46">
+        <f>_xlfn.XLOOKUP(K46,Sheet2!C:C,Sheet2!A:A,"",-1,1)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>243</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="2"/>
+        <v>46</v>
+      </c>
+      <c r="C47" t="s">
+        <v>219</v>
+      </c>
+      <c r="D47" t="s">
+        <v>220</v>
+      </c>
+      <c r="E47" t="s">
+        <v>244</v>
+      </c>
+      <c r="F47" t="s">
+        <v>245</v>
+      </c>
+      <c r="G47">
+        <v>149</v>
+      </c>
+      <c r="H47">
+        <v>4.5</v>
+      </c>
+      <c r="I47" t="s">
+        <v>246</v>
+      </c>
+      <c r="J47">
+        <v>4040</v>
+      </c>
+      <c r="K47">
+        <v>2011</v>
+      </c>
+      <c r="L47" t="s">
+        <v>247</v>
+      </c>
+      <c r="M47" t="s">
+        <v>384</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="0"/>
+        <v>27.114093959731544</v>
+      </c>
+      <c r="O47">
+        <f t="shared" si="1"/>
+        <v>3.6881188118811879E-2</v>
+      </c>
+      <c r="P47">
+        <f>_xlfn.XLOOKUP(K47,Sheet2!C:C,Sheet2!A:A,"",-1,1)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>248</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="C48" t="s">
+        <v>219</v>
+      </c>
+      <c r="D48" t="s">
+        <v>220</v>
+      </c>
+      <c r="E48" t="s">
+        <v>249</v>
+      </c>
+      <c r="F48" t="s">
+        <v>59</v>
+      </c>
+      <c r="G48">
+        <v>97</v>
+      </c>
+      <c r="H48">
+        <v>4.5</v>
+      </c>
+      <c r="I48" t="s">
+        <v>250</v>
+      </c>
+      <c r="J48">
+        <v>2400</v>
+      </c>
+      <c r="K48">
+        <v>1969</v>
+      </c>
+      <c r="L48" t="s">
+        <v>251</v>
+      </c>
+      <c r="M48" t="s">
+        <v>384</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="0"/>
+        <v>24.742268041237114</v>
+      </c>
+      <c r="O48">
+        <f t="shared" si="1"/>
+        <v>4.0416666666666663E-2</v>
+      </c>
+      <c r="P48">
+        <f>_xlfn.XLOOKUP(K48,Sheet2!C:C,Sheet2!A:A,"",-1,1)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>252</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="C49" t="s">
+        <v>219</v>
+      </c>
+      <c r="D49" t="s">
+        <v>220</v>
+      </c>
+      <c r="E49" t="s">
+        <v>253</v>
+      </c>
+      <c r="F49" t="s">
+        <v>202</v>
+      </c>
+      <c r="G49">
+        <v>102</v>
+      </c>
+      <c r="H49">
+        <v>3.5</v>
+      </c>
+      <c r="I49" t="s">
+        <v>254</v>
+      </c>
+      <c r="J49">
+        <v>3610</v>
+      </c>
+      <c r="K49">
+        <v>1979</v>
+      </c>
+      <c r="L49" t="s">
+        <v>255</v>
+      </c>
+      <c r="M49" t="s">
+        <v>384</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="0"/>
+        <v>35.392156862745097</v>
+      </c>
+      <c r="O49">
+        <f t="shared" si="1"/>
+        <v>2.8254847645429362E-2</v>
+      </c>
+      <c r="P49">
+        <f>_xlfn.XLOOKUP(K49,Sheet2!C:C,Sheet2!A:A,"",-1,1)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>256</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
+      <c r="C50" t="s">
+        <v>219</v>
+      </c>
+      <c r="D50" t="s">
+        <v>220</v>
+      </c>
+      <c r="E50" t="s">
+        <v>257</v>
+      </c>
+      <c r="F50" t="s">
+        <v>83</v>
+      </c>
+      <c r="G50">
+        <v>59</v>
+      </c>
+      <c r="H50">
+        <v>2.5</v>
+      </c>
+      <c r="I50" t="s">
+        <v>258</v>
+      </c>
+      <c r="J50">
+        <v>1610</v>
+      </c>
+      <c r="K50">
+        <v>1972</v>
+      </c>
+      <c r="L50" t="s">
+        <v>259</v>
+      </c>
+      <c r="M50" t="s">
+        <v>384</v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="0"/>
+        <v>27.288135593220339</v>
+      </c>
+      <c r="O50">
+        <f t="shared" si="1"/>
+        <v>3.6645962732919257E-2</v>
+      </c>
+      <c r="P50">
+        <f>_xlfn.XLOOKUP(K50,Sheet2!C:C,Sheet2!A:A,"",-1,1)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>260</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="C51" t="s">
+        <v>219</v>
+      </c>
+      <c r="D51" t="s">
+        <v>220</v>
+      </c>
+      <c r="E51" t="s">
+        <v>261</v>
+      </c>
+      <c r="F51" t="s">
+        <v>108</v>
+      </c>
+      <c r="G51">
+        <v>81</v>
+      </c>
+      <c r="H51">
+        <v>4</v>
+      </c>
+      <c r="I51" t="s">
+        <v>262</v>
+      </c>
+      <c r="J51">
+        <v>2045</v>
+      </c>
+      <c r="K51">
+        <v>1951</v>
+      </c>
+      <c r="L51" t="s">
+        <v>263</v>
+      </c>
+      <c r="M51" t="s">
+        <v>384</v>
+      </c>
+      <c r="N51">
+        <f t="shared" si="0"/>
+        <v>25.246913580246915</v>
+      </c>
+      <c r="O51">
+        <f t="shared" si="1"/>
+        <v>3.9608801955990217E-2</v>
+      </c>
+      <c r="P51">
+        <f>_xlfn.XLOOKUP(K51,Sheet2!C:C,Sheet2!A:A,"",-1,1)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>264</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="2"/>
+        <v>51</v>
+      </c>
+      <c r="C52" t="s">
+        <v>219</v>
+      </c>
+      <c r="D52" t="s">
+        <v>220</v>
+      </c>
+      <c r="E52" t="s">
+        <v>265</v>
+      </c>
+      <c r="F52" t="s">
+        <v>266</v>
+      </c>
+      <c r="G52">
+        <v>61</v>
+      </c>
+      <c r="H52">
+        <v>3.5</v>
+      </c>
+      <c r="I52" t="s">
+        <v>267</v>
+      </c>
+      <c r="J52">
+        <v>1660</v>
+      </c>
+      <c r="K52">
+        <v>2012</v>
+      </c>
+      <c r="L52" t="s">
+        <v>268</v>
+      </c>
+      <c r="M52" t="s">
+        <v>384</v>
+      </c>
+      <c r="N52">
+        <f t="shared" si="0"/>
+        <v>27.21311475409836</v>
+      </c>
+      <c r="O52">
+        <f t="shared" si="1"/>
+        <v>3.6746987951807232E-2</v>
+      </c>
+      <c r="P52">
+        <f>_xlfn.XLOOKUP(K52,Sheet2!C:C,Sheet2!A:A,"",-1,1)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>269</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="2"/>
+        <v>52</v>
+      </c>
+      <c r="C53" t="s">
+        <v>219</v>
+      </c>
+      <c r="D53" t="s">
+        <v>220</v>
+      </c>
+      <c r="E53" t="s">
+        <v>270</v>
+      </c>
+      <c r="F53" t="s">
+        <v>131</v>
+      </c>
+      <c r="G53">
+        <v>79</v>
+      </c>
+      <c r="H53">
+        <v>3.5</v>
+      </c>
+      <c r="I53" t="s">
+        <v>192</v>
+      </c>
+      <c r="J53">
+        <v>2890</v>
+      </c>
+      <c r="K53">
+        <v>1940</v>
+      </c>
+      <c r="L53" t="s">
+        <v>271</v>
+      </c>
+      <c r="M53" t="s">
+        <v>384</v>
+      </c>
+      <c r="N53">
+        <f t="shared" si="0"/>
+        <v>36.582278481012658</v>
+      </c>
+      <c r="O53">
+        <f t="shared" si="1"/>
+        <v>2.7335640138408304E-2</v>
+      </c>
+      <c r="P53">
+        <f>_xlfn.XLOOKUP(K53,Sheet2!C:C,Sheet2!A:A,"",-1,1)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>272</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="C54" t="s">
+        <v>219</v>
+      </c>
+      <c r="D54" t="s">
+        <v>220</v>
+      </c>
+      <c r="E54" t="s">
+        <v>273</v>
+      </c>
+      <c r="F54" t="s">
+        <v>236</v>
+      </c>
+      <c r="G54">
+        <v>83</v>
+      </c>
+      <c r="H54">
+        <v>3.5</v>
+      </c>
+      <c r="I54" t="s">
+        <v>274</v>
+      </c>
+      <c r="J54">
+        <v>3390</v>
+      </c>
+      <c r="K54">
+        <v>1940</v>
+      </c>
+      <c r="L54" t="s">
+        <v>271</v>
+      </c>
+      <c r="M54" t="s">
+        <v>384</v>
+      </c>
+      <c r="N54">
+        <f t="shared" si="0"/>
+        <v>40.843373493975903</v>
+      </c>
+      <c r="O54">
+        <f t="shared" si="1"/>
+        <v>2.4483775811209439E-2</v>
+      </c>
+      <c r="P54">
+        <f>_xlfn.XLOOKUP(K54,Sheet2!C:C,Sheet2!A:A,"",-1,1)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>275</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="2"/>
+        <v>54</v>
+      </c>
+      <c r="C55" t="s">
+        <v>219</v>
+      </c>
+      <c r="D55" t="s">
+        <v>220</v>
+      </c>
+      <c r="E55" t="s">
+        <v>276</v>
+      </c>
+      <c r="F55" t="s">
+        <v>156</v>
+      </c>
+      <c r="G55">
+        <v>63</v>
+      </c>
+      <c r="H55">
+        <v>2.5</v>
+      </c>
+      <c r="I55" t="s">
+        <v>277</v>
+      </c>
+      <c r="J55">
+        <v>1820</v>
+      </c>
+      <c r="K55">
+        <v>2022</v>
+      </c>
+      <c r="L55" t="s">
+        <v>278</v>
+      </c>
+      <c r="M55" t="s">
+        <v>384</v>
+      </c>
+      <c r="N55">
+        <f t="shared" si="0"/>
+        <v>28.888888888888889</v>
+      </c>
+      <c r="O55">
+        <f t="shared" si="1"/>
+        <v>3.4615384615384617E-2</v>
+      </c>
+      <c r="P55">
+        <f>_xlfn.XLOOKUP(K55,Sheet2!C:C,Sheet2!A:A,"",-1,1)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>279</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="C56" t="s">
+        <v>219</v>
+      </c>
+      <c r="D56" t="s">
+        <v>220</v>
+      </c>
+      <c r="E56" t="s">
+        <v>280</v>
+      </c>
+      <c r="F56" t="s">
+        <v>202</v>
+      </c>
+      <c r="G56">
+        <v>102</v>
+      </c>
+      <c r="H56">
+        <v>4.5</v>
+      </c>
+      <c r="I56" t="s">
+        <v>281</v>
+      </c>
+      <c r="J56">
+        <v>3890</v>
+      </c>
+      <c r="K56">
+        <v>1956</v>
+      </c>
+      <c r="L56" t="s">
+        <v>282</v>
+      </c>
+      <c r="M56" t="s">
+        <v>384</v>
+      </c>
+      <c r="N56">
+        <f t="shared" si="0"/>
+        <v>38.137254901960787</v>
+      </c>
+      <c r="O56">
+        <f t="shared" si="1"/>
+        <v>2.622107969151671E-2</v>
+      </c>
+      <c r="P56">
+        <f>_xlfn.XLOOKUP(K56,Sheet2!C:C,Sheet2!A:A,"",-1,1)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>283</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="C57" t="s">
+        <v>219</v>
+      </c>
+      <c r="D57" t="s">
+        <v>220</v>
+      </c>
+      <c r="E57" t="s">
+        <v>284</v>
+      </c>
+      <c r="F57" t="s">
+        <v>181</v>
+      </c>
+      <c r="G57">
+        <v>109</v>
+      </c>
+      <c r="H57">
+        <v>4</v>
+      </c>
+      <c r="I57" t="s">
+        <v>79</v>
+      </c>
+      <c r="J57">
+        <v>3180</v>
+      </c>
+      <c r="K57">
+        <v>1900</v>
+      </c>
+      <c r="L57" t="s">
+        <v>285</v>
+      </c>
+      <c r="M57" t="s">
+        <v>384</v>
+      </c>
+      <c r="N57">
+        <f t="shared" si="0"/>
+        <v>29.174311926605505</v>
+      </c>
+      <c r="O57">
+        <f t="shared" si="1"/>
+        <v>3.4276729559748427E-2</v>
+      </c>
+      <c r="P57">
+        <f>_xlfn.XLOOKUP(K57,Sheet2!C:C,Sheet2!A:A,"",-1,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>286</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="2"/>
+        <v>57</v>
+      </c>
+      <c r="C58" t="s">
+        <v>219</v>
+      </c>
+      <c r="D58" t="s">
+        <v>220</v>
+      </c>
+      <c r="E58" t="s">
+        <v>287</v>
+      </c>
+      <c r="F58" t="s">
+        <v>288</v>
+      </c>
+      <c r="G58">
+        <v>101</v>
+      </c>
+      <c r="H58">
+        <v>3.5</v>
+      </c>
+      <c r="I58" t="s">
+        <v>289</v>
+      </c>
+      <c r="J58">
+        <v>2950</v>
+      </c>
+      <c r="K58">
+        <v>2016</v>
+      </c>
+      <c r="L58" t="s">
+        <v>290</v>
+      </c>
+      <c r="M58" t="s">
+        <v>384</v>
+      </c>
+      <c r="N58">
+        <f t="shared" si="0"/>
+        <v>29.207920792079207</v>
+      </c>
+      <c r="O58">
+        <f t="shared" si="1"/>
+        <v>3.4237288135593222E-2</v>
+      </c>
+      <c r="P58">
+        <f>_xlfn.XLOOKUP(K58,Sheet2!C:C,Sheet2!A:A,"",-1,1)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>291</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="2"/>
+        <v>58</v>
+      </c>
+      <c r="C59" t="s">
+        <v>219</v>
+      </c>
+      <c r="D59" t="s">
+        <v>220</v>
+      </c>
+      <c r="E59" t="s">
+        <v>292</v>
+      </c>
+      <c r="F59" t="s">
+        <v>245</v>
+      </c>
+      <c r="G59">
+        <v>149</v>
+      </c>
+      <c r="H59">
+        <v>4.5</v>
+      </c>
+      <c r="I59" t="s">
+        <v>293</v>
+      </c>
+      <c r="J59">
+        <v>4300</v>
+      </c>
+      <c r="K59">
+        <v>2011</v>
+      </c>
+      <c r="L59" t="s">
+        <v>247</v>
+      </c>
+      <c r="M59" t="s">
+        <v>384</v>
+      </c>
+      <c r="N59">
+        <f t="shared" si="0"/>
+        <v>28.859060402684563</v>
+      </c>
+      <c r="O59">
+        <f t="shared" si="1"/>
+        <v>3.4651162790697673E-2</v>
+      </c>
+      <c r="P59">
+        <f>_xlfn.XLOOKUP(K59,Sheet2!C:C,Sheet2!A:A,"",-1,1)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>294</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="2"/>
+        <v>59</v>
+      </c>
+      <c r="C60" t="s">
+        <v>219</v>
+      </c>
+      <c r="D60" t="s">
+        <v>220</v>
+      </c>
+      <c r="E60" t="s">
+        <v>295</v>
+      </c>
+      <c r="F60" t="s">
+        <v>296</v>
+      </c>
+      <c r="G60">
+        <v>193</v>
+      </c>
+      <c r="H60">
+        <v>4.5</v>
+      </c>
+      <c r="I60" t="s">
+        <v>297</v>
+      </c>
+      <c r="J60">
+        <v>5700</v>
+      </c>
+      <c r="K60">
+        <v>2013</v>
+      </c>
+      <c r="L60" t="s">
+        <v>298</v>
+      </c>
+      <c r="M60" t="s">
+        <v>384</v>
+      </c>
+      <c r="N60">
+        <f t="shared" si="0"/>
+        <v>29.533678756476682</v>
+      </c>
+      <c r="O60">
+        <f t="shared" si="1"/>
+        <v>3.385964912280702E-2</v>
+      </c>
+      <c r="P60">
+        <f>_xlfn.XLOOKUP(K60,Sheet2!C:C,Sheet2!A:A,"",-1,1)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>299</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="C61" t="s">
+        <v>219</v>
+      </c>
+      <c r="D61" t="s">
+        <v>220</v>
+      </c>
+      <c r="E61" t="s">
+        <v>300</v>
+      </c>
+      <c r="F61" t="s">
+        <v>212</v>
+      </c>
+      <c r="G61">
+        <v>113</v>
+      </c>
+      <c r="H61">
+        <v>4.5</v>
+      </c>
+      <c r="I61" t="s">
+        <v>208</v>
+      </c>
+      <c r="J61">
+        <v>3990</v>
+      </c>
+      <c r="K61">
+        <v>2020</v>
+      </c>
+      <c r="L61" t="s">
+        <v>301</v>
+      </c>
+      <c r="M61" t="s">
+        <v>384</v>
+      </c>
+      <c r="N61">
+        <f t="shared" si="0"/>
+        <v>35.309734513274336</v>
+      </c>
+      <c r="O61">
+        <f t="shared" si="1"/>
+        <v>2.8320802005012531E-2</v>
+      </c>
+      <c r="P61">
+        <f>_xlfn.XLOOKUP(K61,Sheet2!C:C,Sheet2!A:A,"",-1,1)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>302</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="2"/>
+        <v>61</v>
+      </c>
+      <c r="C62" t="s">
+        <v>303</v>
+      </c>
+      <c r="D62" t="s">
+        <v>304</v>
+      </c>
+      <c r="E62" t="s">
+        <v>305</v>
+      </c>
+      <c r="F62" t="s">
+        <v>306</v>
+      </c>
+      <c r="G62">
+        <v>40</v>
+      </c>
+      <c r="H62">
+        <v>2.5</v>
+      </c>
+      <c r="I62" t="s">
+        <v>307</v>
+      </c>
+      <c r="J62">
+        <v>2750</v>
+      </c>
+      <c r="K62">
+        <v>2022</v>
+      </c>
+      <c r="L62" t="s">
+        <v>308</v>
+      </c>
+      <c r="M62" t="s">
+        <v>384</v>
+      </c>
+      <c r="N62">
+        <f t="shared" si="0"/>
+        <v>68.75</v>
+      </c>
+      <c r="O62">
+        <f t="shared" si="1"/>
+        <v>1.4545454545454545E-2</v>
+      </c>
+      <c r="P62">
+        <f>_xlfn.XLOOKUP(K62,Sheet2!C:C,Sheet2!A:A,"",-1,1)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>309</v>
+      </c>
+      <c r="B63">
+        <f t="shared" si="2"/>
         <v>62</v>
       </c>
-      <c r="H24">
+      <c r="C63" t="s">
+        <v>303</v>
+      </c>
+      <c r="D63" t="s">
+        <v>304</v>
+      </c>
+      <c r="E63" t="s">
+        <v>310</v>
+      </c>
+      <c r="F63" t="s">
+        <v>306</v>
+      </c>
+      <c r="G63">
+        <v>40</v>
+      </c>
+      <c r="H63">
         <v>2.5</v>
       </c>
-      <c r="I24" t="s">
-        <v>124</v>
-      </c>
-      <c r="J24" s="1">
-        <v>2127</v>
-      </c>
-      <c r="K24">
-        <v>2010</v>
-      </c>
-      <c r="L24" t="s">
-        <v>125</v>
-      </c>
-      <c r="M24" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>126</v>
-      </c>
-      <c r="B25">
+      <c r="I63" t="s">
+        <v>307</v>
+      </c>
+      <c r="J63">
+        <v>2750</v>
+      </c>
+      <c r="K63">
+        <v>2022</v>
+      </c>
+      <c r="L63" t="s">
+        <v>308</v>
+      </c>
+      <c r="M63" t="s">
+        <v>384</v>
+      </c>
+      <c r="N63">
         <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="C25" t="s">
+        <v>68.75</v>
+      </c>
+      <c r="O63">
+        <f t="shared" si="1"/>
+        <v>1.4545454545454545E-2</v>
+      </c>
+      <c r="P63">
+        <f>_xlfn.XLOOKUP(K63,Sheet2!C:C,Sheet2!A:A,"",-1,1)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>311</v>
+      </c>
+      <c r="B64">
+        <f t="shared" si="2"/>
+        <v>63</v>
+      </c>
+      <c r="C64" t="s">
+        <v>303</v>
+      </c>
+      <c r="D64" t="s">
+        <v>304</v>
+      </c>
+      <c r="E64" t="s">
+        <v>312</v>
+      </c>
+      <c r="F64" t="s">
+        <v>222</v>
+      </c>
+      <c r="G64">
+        <v>71</v>
+      </c>
+      <c r="H64">
+        <v>3</v>
+      </c>
+      <c r="I64" t="s">
+        <v>313</v>
+      </c>
+      <c r="J64">
+        <v>1650</v>
+      </c>
+      <c r="K64">
+        <v>2001</v>
+      </c>
+      <c r="L64" t="s">
+        <v>314</v>
+      </c>
+      <c r="M64" t="s">
+        <v>384</v>
+      </c>
+      <c r="N64">
+        <f t="shared" si="0"/>
+        <v>23.239436619718308</v>
+      </c>
+      <c r="O64">
+        <f t="shared" si="1"/>
+        <v>4.303030303030303E-2</v>
+      </c>
+      <c r="P64">
+        <f>_xlfn.XLOOKUP(K64,Sheet2!C:C,Sheet2!A:A,"",-1,1)</f>
         <v>8</v>
       </c>
-      <c r="D25" t="s">
-        <v>115</v>
-      </c>
-      <c r="E25" t="s">
-        <v>127</v>
-      </c>
-      <c r="F25" t="s">
-        <v>128</v>
-      </c>
-      <c r="G25" s="1">
-        <v>88</v>
-      </c>
-      <c r="H25">
-        <v>3.5</v>
-      </c>
-      <c r="I25" t="s">
-        <v>129</v>
-      </c>
-      <c r="J25" s="1">
-        <v>2766</v>
-      </c>
-      <c r="K25">
-        <v>2018</v>
-      </c>
-      <c r="L25" t="s">
-        <v>130</v>
-      </c>
-      <c r="M25" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>132</v>
-      </c>
-      <c r="B26">
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>315</v>
+      </c>
+      <c r="B65">
+        <f t="shared" si="2"/>
+        <v>64</v>
+      </c>
+      <c r="C65" t="s">
+        <v>303</v>
+      </c>
+      <c r="D65" t="s">
+        <v>304</v>
+      </c>
+      <c r="E65" t="s">
+        <v>316</v>
+      </c>
+      <c r="F65" t="s">
+        <v>64</v>
+      </c>
+      <c r="G65">
+        <v>72</v>
+      </c>
+      <c r="H65">
+        <v>3</v>
+      </c>
+      <c r="I65" t="s">
+        <v>71</v>
+      </c>
+      <c r="J65">
+        <v>1800</v>
+      </c>
+      <c r="K65">
+        <v>2001</v>
+      </c>
+      <c r="L65" t="s">
+        <v>317</v>
+      </c>
+      <c r="M65" t="s">
+        <v>384</v>
+      </c>
+      <c r="N65">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="C26" t="s">
+      <c r="O65">
+        <f t="shared" si="1"/>
+        <v>0.04</v>
+      </c>
+      <c r="P65">
+        <f>_xlfn.XLOOKUP(K65,Sheet2!C:C,Sheet2!A:A,"",-1,1)</f>
         <v>8</v>
       </c>
-      <c r="D26" t="s">
-        <v>115</v>
-      </c>
-      <c r="E26" t="s">
-        <v>133</v>
-      </c>
-      <c r="F26" t="s">
-        <v>134</v>
-      </c>
-      <c r="G26" s="1">
-        <v>86</v>
-      </c>
-      <c r="H26">
-        <v>2.5</v>
-      </c>
-      <c r="I26" t="s">
-        <v>135</v>
-      </c>
-      <c r="J26" s="1">
-        <v>2610</v>
-      </c>
-      <c r="K26">
-        <v>1993</v>
-      </c>
-      <c r="L26" t="s">
-        <v>136</v>
-      </c>
-      <c r="M26" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>137</v>
-      </c>
-      <c r="B27">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="C27" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" t="s">
-        <v>115</v>
-      </c>
-      <c r="E27" t="s">
-        <v>138</v>
-      </c>
-      <c r="F27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" s="1">
-        <v>82</v>
-      </c>
-      <c r="H27">
-        <v>3.5</v>
-      </c>
-      <c r="I27" t="s">
-        <v>139</v>
-      </c>
-      <c r="J27" s="1">
-        <v>2900</v>
-      </c>
-      <c r="K27">
-        <v>1995</v>
-      </c>
-      <c r="L27" t="s">
-        <v>140</v>
-      </c>
-      <c r="M27" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>142</v>
-      </c>
-      <c r="B28">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="C28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" t="s">
-        <v>115</v>
-      </c>
-      <c r="E28" t="s">
-        <v>143</v>
-      </c>
-      <c r="F28" t="s">
-        <v>134</v>
-      </c>
-      <c r="G28" s="1">
-        <v>86</v>
-      </c>
-      <c r="H28">
-        <v>4.5</v>
-      </c>
-      <c r="I28" t="s">
-        <v>144</v>
-      </c>
-      <c r="J28" s="1">
-        <v>2626</v>
-      </c>
-      <c r="K28">
-        <v>1968</v>
-      </c>
-      <c r="L28" t="s">
-        <v>145</v>
-      </c>
-      <c r="M28" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>146</v>
-      </c>
-      <c r="B29">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="C29" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" t="s">
-        <v>115</v>
-      </c>
-      <c r="E29" t="s">
-        <v>147</v>
-      </c>
-      <c r="F29" t="s">
-        <v>134</v>
-      </c>
-      <c r="G29" s="1">
-        <v>86</v>
-      </c>
-      <c r="H29">
-        <v>3</v>
-      </c>
-      <c r="I29" t="s">
-        <v>148</v>
-      </c>
-      <c r="J29" s="1">
-        <v>3590</v>
-      </c>
-      <c r="K29">
-        <v>1943</v>
-      </c>
-      <c r="L29" t="s">
-        <v>149</v>
-      </c>
-      <c r="M29" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>150</v>
-      </c>
-      <c r="B30">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="C30" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" t="s">
-        <v>115</v>
-      </c>
-      <c r="E30" t="s">
-        <v>151</v>
-      </c>
-      <c r="F30" t="s">
-        <v>118</v>
-      </c>
-      <c r="G30" s="1">
-        <v>100</v>
-      </c>
-      <c r="H30">
-        <v>4.5</v>
-      </c>
-      <c r="I30" t="s">
-        <v>152</v>
-      </c>
-      <c r="J30" s="1">
-        <v>2300</v>
-      </c>
-      <c r="K30">
-        <v>1993</v>
-      </c>
-      <c r="L30" t="s">
-        <v>153</v>
-      </c>
-      <c r="M30" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>154</v>
-      </c>
-      <c r="B31">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="C31" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" t="s">
-        <v>115</v>
-      </c>
-      <c r="E31" t="s">
-        <v>155</v>
-      </c>
-      <c r="F31" t="s">
-        <v>156</v>
-      </c>
-      <c r="G31" s="1">
-        <v>63</v>
-      </c>
-      <c r="H31">
-        <v>2.5</v>
-      </c>
-      <c r="I31" t="s">
-        <v>157</v>
-      </c>
-      <c r="J31" s="1">
-        <v>2150</v>
-      </c>
-      <c r="K31">
-        <v>2009</v>
-      </c>
-      <c r="L31" t="s">
-        <v>158</v>
-      </c>
-      <c r="M31" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>159</v>
-      </c>
-      <c r="B32">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="C32" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" t="s">
-        <v>115</v>
-      </c>
-      <c r="E32" t="s">
-        <v>160</v>
-      </c>
-      <c r="F32" t="s">
-        <v>24</v>
-      </c>
-      <c r="G32" s="1">
-        <v>68</v>
-      </c>
-      <c r="H32">
-        <v>2.5</v>
-      </c>
-      <c r="I32" t="s">
-        <v>161</v>
-      </c>
-      <c r="J32" s="1">
-        <v>2020</v>
-      </c>
-      <c r="K32">
-        <v>1982</v>
-      </c>
-      <c r="L32" t="s">
-        <v>162</v>
-      </c>
-      <c r="M32" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>164</v>
-      </c>
-      <c r="B33">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="C33" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" t="s">
-        <v>163</v>
-      </c>
-      <c r="E33" t="s">
-        <v>165</v>
-      </c>
-      <c r="F33" t="s">
-        <v>166</v>
-      </c>
-      <c r="G33" s="1">
-        <v>90</v>
-      </c>
-      <c r="H33">
-        <v>3.5</v>
-      </c>
-      <c r="I33" t="s">
-        <v>167</v>
-      </c>
-      <c r="J33" s="1">
-        <v>3925</v>
-      </c>
-      <c r="K33">
-        <v>1911</v>
-      </c>
-      <c r="L33" t="s">
-        <v>168</v>
-      </c>
-      <c r="M33" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>169</v>
-      </c>
-      <c r="B34">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="C34" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34" t="s">
-        <v>163</v>
-      </c>
-      <c r="E34" t="s">
-        <v>170</v>
-      </c>
-      <c r="F34" t="s">
-        <v>171</v>
-      </c>
-      <c r="G34" s="1">
-        <v>140</v>
-      </c>
-      <c r="H34">
-        <v>5.5</v>
-      </c>
-      <c r="I34" t="s">
-        <v>172</v>
-      </c>
-      <c r="J34" s="1">
-        <v>2798</v>
-      </c>
-      <c r="K34">
-        <v>2008</v>
-      </c>
-      <c r="L34" t="s">
-        <v>173</v>
-      </c>
-      <c r="M34" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>174</v>
-      </c>
-      <c r="B35">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="C35" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35" t="s">
-        <v>163</v>
-      </c>
-      <c r="E35" t="s">
-        <v>175</v>
-      </c>
-      <c r="F35" t="s">
-        <v>176</v>
-      </c>
-      <c r="G35" s="1">
-        <v>126</v>
-      </c>
-      <c r="H35">
-        <v>3.5</v>
-      </c>
-      <c r="I35" t="s">
-        <v>177</v>
-      </c>
-      <c r="J35" s="1">
-        <v>3140</v>
-      </c>
-      <c r="K35">
-        <v>2025</v>
-      </c>
-      <c r="L35" t="s">
-        <v>178</v>
-      </c>
-      <c r="M35" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>179</v>
-      </c>
-      <c r="B36">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="C36" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36" t="s">
-        <v>163</v>
-      </c>
-      <c r="E36" t="s">
-        <v>180</v>
-      </c>
-      <c r="F36" t="s">
-        <v>181</v>
-      </c>
-      <c r="G36" s="1">
-        <v>109</v>
-      </c>
-      <c r="H36">
-        <v>4.5</v>
-      </c>
-      <c r="I36" t="s">
-        <v>182</v>
-      </c>
-      <c r="J36" s="1">
-        <v>4660</v>
-      </c>
-      <c r="K36">
-        <v>2025</v>
-      </c>
-      <c r="L36" t="s">
-        <v>183</v>
-      </c>
-      <c r="M36" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>184</v>
-      </c>
-      <c r="B37">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="C37" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37" t="s">
-        <v>163</v>
-      </c>
-      <c r="E37" t="s">
-        <v>185</v>
-      </c>
-      <c r="F37" t="s">
-        <v>186</v>
-      </c>
-      <c r="G37" s="1">
-        <v>105</v>
-      </c>
-      <c r="H37">
-        <v>4.5</v>
-      </c>
-      <c r="I37" t="s">
-        <v>187</v>
-      </c>
-      <c r="J37" s="1">
-        <v>2770</v>
-      </c>
-      <c r="K37">
-        <v>2025</v>
-      </c>
-      <c r="L37" t="s">
-        <v>188</v>
-      </c>
-      <c r="M37" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>189</v>
-      </c>
-      <c r="B38">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="C38" t="s">
-        <v>8</v>
-      </c>
-      <c r="D38" t="s">
-        <v>163</v>
-      </c>
-      <c r="E38" t="s">
-        <v>190</v>
-      </c>
-      <c r="F38" t="s">
-        <v>191</v>
-      </c>
-      <c r="G38" s="1">
-        <v>110</v>
-      </c>
-      <c r="H38">
-        <v>4.5</v>
-      </c>
-      <c r="I38" t="s">
-        <v>192</v>
-      </c>
-      <c r="J38" s="1">
-        <v>2890</v>
-      </c>
-      <c r="K38">
-        <v>2025</v>
-      </c>
-      <c r="L38" t="s">
-        <v>188</v>
-      </c>
-      <c r="M38" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>193</v>
-      </c>
-      <c r="B39">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="C39" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39" t="s">
-        <v>163</v>
-      </c>
-      <c r="E39" t="s">
-        <v>194</v>
-      </c>
-      <c r="F39" t="s">
-        <v>128</v>
-      </c>
-      <c r="G39" s="1">
-        <v>88</v>
-      </c>
-      <c r="H39">
-        <v>4.5</v>
-      </c>
-      <c r="I39" t="s">
-        <v>195</v>
-      </c>
-      <c r="J39" s="1">
-        <v>3400</v>
-      </c>
-      <c r="K39">
-        <v>2025</v>
-      </c>
-      <c r="L39" t="s">
-        <v>196</v>
-      </c>
-      <c r="M39" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>197</v>
-      </c>
-      <c r="B40">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="C40" t="s">
-        <v>8</v>
-      </c>
-      <c r="D40" t="s">
-        <v>163</v>
-      </c>
-      <c r="E40" t="s">
-        <v>198</v>
-      </c>
-      <c r="F40" t="s">
-        <v>199</v>
-      </c>
-      <c r="G40" s="1">
-        <v>58</v>
-      </c>
-      <c r="H40">
-        <v>2.5</v>
-      </c>
-      <c r="I40" t="s">
-        <v>200</v>
-      </c>
-      <c r="J40" s="1">
-        <v>2990</v>
-      </c>
-      <c r="K40">
-        <v>2023</v>
-      </c>
-      <c r="L40" t="s">
-        <v>201</v>
-      </c>
-      <c r="M40" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>203</v>
-      </c>
-      <c r="B41">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="C41" t="s">
-        <v>8</v>
-      </c>
-      <c r="D41" t="s">
-        <v>163</v>
-      </c>
-      <c r="E41" t="s">
-        <v>204</v>
-      </c>
-      <c r="F41" t="s">
-        <v>191</v>
-      </c>
-      <c r="G41" s="1">
-        <v>110</v>
-      </c>
-      <c r="H41">
-        <v>4.5</v>
-      </c>
-      <c r="I41" t="s">
-        <v>205</v>
-      </c>
-      <c r="J41" s="1">
-        <v>3650</v>
-      </c>
-      <c r="K41">
-        <v>1969</v>
-      </c>
-      <c r="L41" t="s">
-        <v>206</v>
-      </c>
-      <c r="M41" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>218</v>
-      </c>
-      <c r="B42">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="C42" t="s">
-        <v>219</v>
-      </c>
-      <c r="D42" t="s">
-        <v>220</v>
-      </c>
-      <c r="E42" t="s">
-        <v>221</v>
-      </c>
-      <c r="F42" t="s">
-        <v>222</v>
-      </c>
-      <c r="G42" s="1">
-        <v>71</v>
-      </c>
-      <c r="H42">
-        <v>3.5</v>
-      </c>
-      <c r="I42" t="s">
-        <v>223</v>
-      </c>
-      <c r="J42" s="1">
-        <v>2040</v>
-      </c>
-      <c r="K42">
-        <v>1969</v>
-      </c>
-      <c r="L42" t="s">
-        <v>224</v>
-      </c>
-      <c r="M42" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>225</v>
-      </c>
-      <c r="B43">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="C43" t="s">
-        <v>219</v>
-      </c>
-      <c r="D43" t="s">
-        <v>220</v>
-      </c>
-      <c r="E43" t="s">
-        <v>226</v>
-      </c>
-      <c r="F43" t="s">
-        <v>227</v>
-      </c>
-      <c r="G43" s="1">
-        <v>76</v>
-      </c>
-      <c r="H43">
-        <v>3.5</v>
-      </c>
-      <c r="I43" t="s">
-        <v>228</v>
-      </c>
-      <c r="J43" s="1">
-        <v>2755</v>
-      </c>
-      <c r="K43">
-        <v>1963</v>
-      </c>
-      <c r="L43" t="s">
-        <v>229</v>
-      </c>
-      <c r="M43" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>230</v>
-      </c>
-      <c r="B44">
-        <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="C44" t="s">
-        <v>219</v>
-      </c>
-      <c r="D44" t="s">
-        <v>220</v>
-      </c>
-      <c r="E44" t="s">
-        <v>231</v>
-      </c>
-      <c r="F44" t="s">
-        <v>24</v>
-      </c>
-      <c r="G44" s="1">
-        <v>68</v>
-      </c>
-      <c r="H44">
-        <v>3.5</v>
-      </c>
-      <c r="I44" t="s">
-        <v>232</v>
-      </c>
-      <c r="J44" s="1">
-        <v>1760</v>
-      </c>
-      <c r="K44">
-        <v>1960</v>
-      </c>
-      <c r="L44" t="s">
-        <v>233</v>
-      </c>
-      <c r="M44" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>234</v>
-      </c>
-      <c r="B45">
-        <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="C45" t="s">
-        <v>219</v>
-      </c>
-      <c r="D45" t="s">
-        <v>220</v>
-      </c>
-      <c r="E45" t="s">
-        <v>235</v>
-      </c>
-      <c r="F45" t="s">
-        <v>236</v>
-      </c>
-      <c r="G45" s="1">
-        <v>83</v>
-      </c>
-      <c r="H45">
-        <v>3.5</v>
-      </c>
-      <c r="I45" t="s">
-        <v>237</v>
-      </c>
-      <c r="J45" s="1">
-        <v>2198</v>
-      </c>
-      <c r="K45">
-        <v>2012</v>
-      </c>
-      <c r="L45" t="s">
-        <v>238</v>
-      </c>
-      <c r="M45" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>239</v>
-      </c>
-      <c r="B46">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="C46" t="s">
-        <v>219</v>
-      </c>
-      <c r="D46" t="s">
-        <v>220</v>
-      </c>
-      <c r="E46" t="s">
-        <v>240</v>
-      </c>
-      <c r="F46" t="s">
-        <v>207</v>
-      </c>
-      <c r="G46" s="1">
-        <v>77</v>
-      </c>
-      <c r="H46">
-        <v>3</v>
-      </c>
-      <c r="I46" t="s">
-        <v>241</v>
-      </c>
-      <c r="J46" s="1">
-        <v>2170</v>
-      </c>
-      <c r="K46">
-        <v>2001</v>
-      </c>
-      <c r="L46" t="s">
-        <v>242</v>
-      </c>
-      <c r="M46" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>243</v>
-      </c>
-      <c r="B47">
-        <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-      <c r="C47" t="s">
-        <v>219</v>
-      </c>
-      <c r="D47" t="s">
-        <v>220</v>
-      </c>
-      <c r="E47" t="s">
-        <v>244</v>
-      </c>
-      <c r="F47" t="s">
-        <v>245</v>
-      </c>
-      <c r="G47" s="1">
-        <v>149</v>
-      </c>
-      <c r="H47">
-        <v>4.5</v>
-      </c>
-      <c r="I47" t="s">
-        <v>246</v>
-      </c>
-      <c r="J47" s="1">
-        <v>4040</v>
-      </c>
-      <c r="K47">
-        <v>2011</v>
-      </c>
-      <c r="L47" t="s">
-        <v>247</v>
-      </c>
-      <c r="M47" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>248</v>
-      </c>
-      <c r="B48">
-        <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="C48" t="s">
-        <v>219</v>
-      </c>
-      <c r="D48" t="s">
-        <v>220</v>
-      </c>
-      <c r="E48" t="s">
-        <v>249</v>
-      </c>
-      <c r="F48" t="s">
-        <v>59</v>
-      </c>
-      <c r="G48" s="1">
-        <v>97</v>
-      </c>
-      <c r="H48">
-        <v>4.5</v>
-      </c>
-      <c r="I48" t="s">
-        <v>250</v>
-      </c>
-      <c r="J48" s="1">
-        <v>2400</v>
-      </c>
-      <c r="K48">
-        <v>1969</v>
-      </c>
-      <c r="L48" t="s">
-        <v>251</v>
-      </c>
-      <c r="M48" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>252</v>
-      </c>
-      <c r="B49">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="C49" t="s">
-        <v>219</v>
-      </c>
-      <c r="D49" t="s">
-        <v>220</v>
-      </c>
-      <c r="E49" t="s">
-        <v>253</v>
-      </c>
-      <c r="F49" t="s">
-        <v>202</v>
-      </c>
-      <c r="G49" s="1">
-        <v>102</v>
-      </c>
-      <c r="H49">
-        <v>3.5</v>
-      </c>
-      <c r="I49" t="s">
-        <v>254</v>
-      </c>
-      <c r="J49" s="1">
-        <v>3610</v>
-      </c>
-      <c r="K49">
-        <v>1979</v>
-      </c>
-      <c r="L49" t="s">
-        <v>255</v>
-      </c>
-      <c r="M49" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>256</v>
-      </c>
-      <c r="B50">
-        <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
-      <c r="C50" t="s">
-        <v>219</v>
-      </c>
-      <c r="D50" t="s">
-        <v>220</v>
-      </c>
-      <c r="E50" t="s">
-        <v>257</v>
-      </c>
-      <c r="F50" t="s">
-        <v>83</v>
-      </c>
-      <c r="G50" s="1">
-        <v>59</v>
-      </c>
-      <c r="H50">
-        <v>2.5</v>
-      </c>
-      <c r="I50" t="s">
-        <v>258</v>
-      </c>
-      <c r="J50" s="1">
-        <v>1610</v>
-      </c>
-      <c r="K50">
-        <v>1972</v>
-      </c>
-      <c r="L50" t="s">
-        <v>259</v>
-      </c>
-      <c r="M50" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>260</v>
-      </c>
-      <c r="B51">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="C51" t="s">
-        <v>219</v>
-      </c>
-      <c r="D51" t="s">
-        <v>220</v>
-      </c>
-      <c r="E51" t="s">
-        <v>261</v>
-      </c>
-      <c r="F51" t="s">
-        <v>108</v>
-      </c>
-      <c r="G51" s="1">
-        <v>81</v>
-      </c>
-      <c r="H51">
-        <v>4</v>
-      </c>
-      <c r="I51" t="s">
-        <v>262</v>
-      </c>
-      <c r="J51" s="1">
-        <v>2045</v>
-      </c>
-      <c r="K51">
-        <v>1951</v>
-      </c>
-      <c r="L51" t="s">
-        <v>263</v>
-      </c>
-      <c r="M51" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>264</v>
-      </c>
-      <c r="B52">
-        <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
-      <c r="C52" t="s">
-        <v>219</v>
-      </c>
-      <c r="D52" t="s">
-        <v>220</v>
-      </c>
-      <c r="E52" t="s">
-        <v>265</v>
-      </c>
-      <c r="F52" t="s">
-        <v>266</v>
-      </c>
-      <c r="G52" s="1">
-        <v>61</v>
-      </c>
-      <c r="H52">
-        <v>3.5</v>
-      </c>
-      <c r="I52" t="s">
-        <v>267</v>
-      </c>
-      <c r="J52" s="1">
-        <v>1660</v>
-      </c>
-      <c r="K52">
-        <v>2012</v>
-      </c>
-      <c r="L52" t="s">
-        <v>268</v>
-      </c>
-      <c r="M52" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>269</v>
-      </c>
-      <c r="B53">
-        <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
-      <c r="C53" t="s">
-        <v>219</v>
-      </c>
-      <c r="D53" t="s">
-        <v>220</v>
-      </c>
-      <c r="E53" t="s">
-        <v>270</v>
-      </c>
-      <c r="F53" t="s">
-        <v>131</v>
-      </c>
-      <c r="G53" s="1">
-        <v>79</v>
-      </c>
-      <c r="H53">
-        <v>3.5</v>
-      </c>
-      <c r="I53" t="s">
-        <v>192</v>
-      </c>
-      <c r="J53" s="1">
-        <v>2890</v>
-      </c>
-      <c r="K53">
-        <v>1940</v>
-      </c>
-      <c r="L53" t="s">
-        <v>271</v>
-      </c>
-      <c r="M53" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>272</v>
-      </c>
-      <c r="B54">
-        <f t="shared" si="0"/>
-        <v>53</v>
-      </c>
-      <c r="C54" t="s">
-        <v>219</v>
-      </c>
-      <c r="D54" t="s">
-        <v>220</v>
-      </c>
-      <c r="E54" t="s">
-        <v>273</v>
-      </c>
-      <c r="F54" t="s">
-        <v>236</v>
-      </c>
-      <c r="G54" s="1">
-        <v>83</v>
-      </c>
-      <c r="H54">
-        <v>3.5</v>
-      </c>
-      <c r="I54" t="s">
-        <v>274</v>
-      </c>
-      <c r="J54" s="1">
-        <v>3390</v>
-      </c>
-      <c r="K54">
-        <v>1940</v>
-      </c>
-      <c r="L54" t="s">
-        <v>271</v>
-      </c>
-      <c r="M54" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>275</v>
-      </c>
-      <c r="B55">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="C55" t="s">
-        <v>219</v>
-      </c>
-      <c r="D55" t="s">
-        <v>220</v>
-      </c>
-      <c r="E55" t="s">
-        <v>276</v>
-      </c>
-      <c r="F55" t="s">
-        <v>156</v>
-      </c>
-      <c r="G55" s="1">
-        <v>63</v>
-      </c>
-      <c r="H55">
-        <v>2.5</v>
-      </c>
-      <c r="I55" t="s">
-        <v>277</v>
-      </c>
-      <c r="J55" s="1">
-        <v>1820</v>
-      </c>
-      <c r="K55">
-        <v>2022</v>
-      </c>
-      <c r="L55" t="s">
-        <v>278</v>
-      </c>
-      <c r="M55" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>279</v>
-      </c>
-      <c r="B56">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="C56" t="s">
-        <v>219</v>
-      </c>
-      <c r="D56" t="s">
-        <v>220</v>
-      </c>
-      <c r="E56" t="s">
-        <v>280</v>
-      </c>
-      <c r="F56" t="s">
-        <v>202</v>
-      </c>
-      <c r="G56" s="1">
-        <v>102</v>
-      </c>
-      <c r="H56">
-        <v>4.5</v>
-      </c>
-      <c r="I56" t="s">
-        <v>281</v>
-      </c>
-      <c r="J56" s="1">
-        <v>3890</v>
-      </c>
-      <c r="K56">
-        <v>1956</v>
-      </c>
-      <c r="L56" t="s">
-        <v>282</v>
-      </c>
-      <c r="M56" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>283</v>
-      </c>
-      <c r="B57">
-        <f t="shared" si="0"/>
-        <v>56</v>
-      </c>
-      <c r="C57" t="s">
-        <v>219</v>
-      </c>
-      <c r="D57" t="s">
-        <v>220</v>
-      </c>
-      <c r="E57" t="s">
-        <v>284</v>
-      </c>
-      <c r="F57" t="s">
-        <v>181</v>
-      </c>
-      <c r="G57" s="1">
-        <v>109</v>
-      </c>
-      <c r="H57">
-        <v>4</v>
-      </c>
-      <c r="I57" t="s">
-        <v>79</v>
-      </c>
-      <c r="J57" s="1">
-        <v>3180</v>
-      </c>
-      <c r="K57">
-        <v>1900</v>
-      </c>
-      <c r="L57" t="s">
-        <v>285</v>
-      </c>
-      <c r="M57" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>286</v>
-      </c>
-      <c r="B58">
-        <f t="shared" si="0"/>
-        <v>57</v>
-      </c>
-      <c r="C58" t="s">
-        <v>219</v>
-      </c>
-      <c r="D58" t="s">
-        <v>220</v>
-      </c>
-      <c r="E58" t="s">
-        <v>287</v>
-      </c>
-      <c r="F58" t="s">
-        <v>288</v>
-      </c>
-      <c r="G58" s="1">
-        <v>101</v>
-      </c>
-      <c r="H58">
-        <v>3.5</v>
-      </c>
-      <c r="I58" t="s">
-        <v>289</v>
-      </c>
-      <c r="J58" s="1">
-        <v>2950</v>
-      </c>
-      <c r="K58">
-        <v>2016</v>
-      </c>
-      <c r="L58" t="s">
-        <v>290</v>
-      </c>
-      <c r="M58" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>291</v>
-      </c>
-      <c r="B59">
-        <f t="shared" si="0"/>
-        <v>58</v>
-      </c>
-      <c r="C59" t="s">
-        <v>219</v>
-      </c>
-      <c r="D59" t="s">
-        <v>220</v>
-      </c>
-      <c r="E59" t="s">
-        <v>292</v>
-      </c>
-      <c r="F59" t="s">
-        <v>245</v>
-      </c>
-      <c r="G59" s="1">
-        <v>149</v>
-      </c>
-      <c r="H59">
-        <v>4.5</v>
-      </c>
-      <c r="I59" t="s">
-        <v>293</v>
-      </c>
-      <c r="J59" s="1">
-        <v>4300</v>
-      </c>
-      <c r="K59">
-        <v>2011</v>
-      </c>
-      <c r="L59" t="s">
-        <v>247</v>
-      </c>
-      <c r="M59" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>294</v>
-      </c>
-      <c r="B60">
-        <f t="shared" si="0"/>
-        <v>59</v>
-      </c>
-      <c r="C60" t="s">
-        <v>219</v>
-      </c>
-      <c r="D60" t="s">
-        <v>220</v>
-      </c>
-      <c r="E60" t="s">
-        <v>295</v>
-      </c>
-      <c r="F60" t="s">
-        <v>296</v>
-      </c>
-      <c r="G60" s="1">
-        <v>193</v>
-      </c>
-      <c r="H60">
-        <v>4.5</v>
-      </c>
-      <c r="I60" t="s">
-        <v>297</v>
-      </c>
-      <c r="J60" s="1">
-        <v>5700</v>
-      </c>
-      <c r="K60">
-        <v>2013</v>
-      </c>
-      <c r="L60" t="s">
-        <v>298</v>
-      </c>
-      <c r="M60" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>299</v>
-      </c>
-      <c r="B61">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="C61" t="s">
-        <v>219</v>
-      </c>
-      <c r="D61" t="s">
-        <v>220</v>
-      </c>
-      <c r="E61" t="s">
-        <v>300</v>
-      </c>
-      <c r="F61" t="s">
-        <v>212</v>
-      </c>
-      <c r="G61" s="1">
-        <v>113</v>
-      </c>
-      <c r="H61">
-        <v>4.5</v>
-      </c>
-      <c r="I61" t="s">
-        <v>208</v>
-      </c>
-      <c r="J61" s="1">
-        <v>3990</v>
-      </c>
-      <c r="K61">
-        <v>2020</v>
-      </c>
-      <c r="L61" t="s">
-        <v>301</v>
-      </c>
-      <c r="M61" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>302</v>
-      </c>
-      <c r="B62">
-        <f t="shared" si="0"/>
-        <v>61</v>
-      </c>
-      <c r="C62" t="s">
-        <v>303</v>
-      </c>
-      <c r="D62" t="s">
-        <v>304</v>
-      </c>
-      <c r="E62" t="s">
-        <v>305</v>
-      </c>
-      <c r="F62" t="s">
-        <v>306</v>
-      </c>
-      <c r="G62" s="1">
-        <v>40</v>
-      </c>
-      <c r="H62">
-        <v>2.5</v>
-      </c>
-      <c r="I62" t="s">
-        <v>307</v>
-      </c>
-      <c r="J62" s="1">
-        <v>2750</v>
-      </c>
-      <c r="K62">
-        <v>2022</v>
-      </c>
-      <c r="L62" t="s">
-        <v>308</v>
-      </c>
-      <c r="M62" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>309</v>
-      </c>
-      <c r="B63">
-        <f t="shared" si="0"/>
-        <v>62</v>
-      </c>
-      <c r="C63" t="s">
-        <v>303</v>
-      </c>
-      <c r="D63" t="s">
-        <v>304</v>
-      </c>
-      <c r="E63" t="s">
-        <v>310</v>
-      </c>
-      <c r="F63" t="s">
-        <v>306</v>
-      </c>
-      <c r="G63" s="1">
-        <v>40</v>
-      </c>
-      <c r="H63">
-        <v>2.5</v>
-      </c>
-      <c r="I63" t="s">
-        <v>307</v>
-      </c>
-      <c r="J63" s="1">
-        <v>2750</v>
-      </c>
-      <c r="K63">
-        <v>2022</v>
-      </c>
-      <c r="L63" t="s">
-        <v>308</v>
-      </c>
-      <c r="M63" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>311</v>
-      </c>
-      <c r="B64">
-        <f t="shared" si="0"/>
-        <v>63</v>
-      </c>
-      <c r="C64" t="s">
-        <v>303</v>
-      </c>
-      <c r="D64" t="s">
-        <v>304</v>
-      </c>
-      <c r="E64" t="s">
-        <v>312</v>
-      </c>
-      <c r="F64" t="s">
-        <v>222</v>
-      </c>
-      <c r="G64" s="1">
-        <v>71</v>
-      </c>
-      <c r="H64">
-        <v>3</v>
-      </c>
-      <c r="I64" t="s">
-        <v>313</v>
-      </c>
-      <c r="J64" s="1">
-        <v>1650</v>
-      </c>
-      <c r="K64">
-        <v>2001</v>
-      </c>
-      <c r="L64" t="s">
-        <v>314</v>
-      </c>
-      <c r="M64" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>315</v>
-      </c>
-      <c r="B65">
-        <f t="shared" si="0"/>
-        <v>64</v>
-      </c>
-      <c r="C65" t="s">
-        <v>303</v>
-      </c>
-      <c r="D65" t="s">
-        <v>304</v>
-      </c>
-      <c r="E65" t="s">
-        <v>316</v>
-      </c>
-      <c r="F65" t="s">
-        <v>64</v>
-      </c>
-      <c r="G65" s="1">
-        <v>72</v>
-      </c>
-      <c r="H65">
-        <v>3</v>
-      </c>
-      <c r="I65" t="s">
-        <v>71</v>
-      </c>
-      <c r="J65" s="1">
-        <v>1800</v>
-      </c>
-      <c r="K65">
-        <v>2001</v>
-      </c>
-      <c r="L65" t="s">
-        <v>317</v>
-      </c>
-      <c r="M65" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>318</v>
       </c>
       <c r="B66">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>65</v>
       </c>
       <c r="C66" t="s">
@@ -4805,7 +5640,7 @@
       <c r="F66" t="s">
         <v>199</v>
       </c>
-      <c r="G66" s="1">
+      <c r="G66">
         <v>58</v>
       </c>
       <c r="H66">
@@ -4814,7 +5649,7 @@
       <c r="I66" t="s">
         <v>320</v>
       </c>
-      <c r="J66" s="1">
+      <c r="J66">
         <v>1750</v>
       </c>
       <c r="K66">
@@ -4826,13 +5661,25 @@
       <c r="M66" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N66">
+        <f t="shared" si="0"/>
+        <v>30.172413793103448</v>
+      </c>
+      <c r="O66">
+        <f t="shared" si="1"/>
+        <v>3.3142857142857141E-2</v>
+      </c>
+      <c r="P66">
+        <f>_xlfn.XLOOKUP(K66,Sheet2!C:C,Sheet2!A:A,"",-1,1)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>322</v>
       </c>
       <c r="B67">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>66</v>
       </c>
       <c r="C67" t="s">
@@ -4847,7 +5694,7 @@
       <c r="F67" t="s">
         <v>324</v>
       </c>
-      <c r="G67" s="1">
+      <c r="G67">
         <v>106</v>
       </c>
       <c r="H67">
@@ -4856,7 +5703,7 @@
       <c r="I67" t="s">
         <v>325</v>
       </c>
-      <c r="J67" s="1">
+      <c r="J67">
         <v>2510</v>
       </c>
       <c r="K67">
@@ -4868,13 +5715,25 @@
       <c r="M67" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N67">
+        <f t="shared" ref="N67:N121" si="3">J67/G67</f>
+        <v>23.679245283018869</v>
+      </c>
+      <c r="O67">
+        <f t="shared" ref="O67:O121" si="4">G67/J67</f>
+        <v>4.2231075697211157E-2</v>
+      </c>
+      <c r="P67">
+        <f>_xlfn.XLOOKUP(K67,Sheet2!C:C,Sheet2!A:A,"",-1,1)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>327</v>
       </c>
       <c r="B68">
-        <f t="shared" ref="B68:B121" si="1">B67+1</f>
+        <f t="shared" ref="B68:B121" si="5">B67+1</f>
         <v>67</v>
       </c>
       <c r="C68" t="s">
@@ -4889,7 +5748,7 @@
       <c r="F68" t="s">
         <v>24</v>
       </c>
-      <c r="G68" s="1">
+      <c r="G68">
         <v>68</v>
       </c>
       <c r="H68">
@@ -4898,7 +5757,7 @@
       <c r="I68" t="s">
         <v>329</v>
       </c>
-      <c r="J68" s="1">
+      <c r="J68">
         <v>1615</v>
       </c>
       <c r="K68">
@@ -4910,13 +5769,25 @@
       <c r="M68" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N68">
+        <f t="shared" si="3"/>
+        <v>23.75</v>
+      </c>
+      <c r="O68">
+        <f t="shared" si="4"/>
+        <v>4.2105263157894736E-2</v>
+      </c>
+      <c r="P68">
+        <f>_xlfn.XLOOKUP(K68,Sheet2!C:C,Sheet2!A:A,"",-1,1)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>331</v>
       </c>
       <c r="B69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>68</v>
       </c>
       <c r="C69" t="s">
@@ -4931,7 +5802,7 @@
       <c r="F69" t="s">
         <v>64</v>
       </c>
-      <c r="G69" s="1">
+      <c r="G69">
         <v>72</v>
       </c>
       <c r="H69">
@@ -4940,7 +5811,7 @@
       <c r="I69" t="s">
         <v>333</v>
       </c>
-      <c r="J69" s="1">
+      <c r="J69">
         <v>1790</v>
       </c>
       <c r="K69">
@@ -4952,13 +5823,25 @@
       <c r="M69" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N69">
+        <f t="shared" si="3"/>
+        <v>24.861111111111111</v>
+      </c>
+      <c r="O69">
+        <f t="shared" si="4"/>
+        <v>4.0223463687150837E-2</v>
+      </c>
+      <c r="P69">
+        <f>_xlfn.XLOOKUP(K69,Sheet2!C:C,Sheet2!A:A,"",-1,1)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>335</v>
       </c>
       <c r="B70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>69</v>
       </c>
       <c r="C70" t="s">
@@ -4973,7 +5856,7 @@
       <c r="F70" t="s">
         <v>50</v>
       </c>
-      <c r="G70" s="1">
+      <c r="G70">
         <v>92</v>
       </c>
       <c r="H70">
@@ -4982,7 +5865,7 @@
       <c r="I70" t="s">
         <v>209</v>
       </c>
-      <c r="J70" s="1">
+      <c r="J70">
         <v>1890</v>
       </c>
       <c r="K70">
@@ -4994,13 +5877,25 @@
       <c r="M70" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N70">
+        <f t="shared" si="3"/>
+        <v>20.543478260869566</v>
+      </c>
+      <c r="O70">
+        <f t="shared" si="4"/>
+        <v>4.867724867724868E-2</v>
+      </c>
+      <c r="P70">
+        <f>_xlfn.XLOOKUP(K70,Sheet2!C:C,Sheet2!A:A,"",-1,1)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>338</v>
       </c>
       <c r="B71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>70</v>
       </c>
       <c r="C71" t="s">
@@ -5015,7 +5910,7 @@
       <c r="F71" t="s">
         <v>210</v>
       </c>
-      <c r="G71" s="1">
+      <c r="G71">
         <v>112</v>
       </c>
       <c r="H71">
@@ -5024,7 +5919,7 @@
       <c r="I71" t="s">
         <v>340</v>
       </c>
-      <c r="J71" s="1">
+      <c r="J71">
         <v>4140</v>
       </c>
       <c r="K71">
@@ -5036,13 +5931,25 @@
       <c r="M71" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N71">
+        <f t="shared" si="3"/>
+        <v>36.964285714285715</v>
+      </c>
+      <c r="O71">
+        <f t="shared" si="4"/>
+        <v>2.7053140096618359E-2</v>
+      </c>
+      <c r="P71">
+        <f>_xlfn.XLOOKUP(K71,Sheet2!C:C,Sheet2!A:A,"",-1,1)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>342</v>
       </c>
       <c r="B72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>71</v>
       </c>
       <c r="C72" t="s">
@@ -5057,7 +5964,7 @@
       <c r="F72" t="s">
         <v>141</v>
       </c>
-      <c r="G72" s="1">
+      <c r="G72">
         <v>96</v>
       </c>
       <c r="H72">
@@ -5066,7 +5973,7 @@
       <c r="I72" t="s">
         <v>344</v>
       </c>
-      <c r="J72" s="1">
+      <c r="J72">
         <v>3770</v>
       </c>
       <c r="K72">
@@ -5078,13 +5985,25 @@
       <c r="M72" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N72">
+        <f t="shared" si="3"/>
+        <v>39.270833333333336</v>
+      </c>
+      <c r="O72">
+        <f t="shared" si="4"/>
+        <v>2.546419098143236E-2</v>
+      </c>
+      <c r="P72">
+        <f>_xlfn.XLOOKUP(K72,Sheet2!C:C,Sheet2!A:A,"",-1,1)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>346</v>
       </c>
       <c r="B73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>72</v>
       </c>
       <c r="C73" t="s">
@@ -5099,7 +6018,7 @@
       <c r="F73" t="s">
         <v>350</v>
       </c>
-      <c r="G73" s="1">
+      <c r="G73">
         <v>119</v>
       </c>
       <c r="H73">
@@ -5108,7 +6027,7 @@
       <c r="I73" t="s">
         <v>351</v>
       </c>
-      <c r="J73" s="1">
+      <c r="J73">
         <v>4550</v>
       </c>
       <c r="K73">
@@ -5120,13 +6039,25 @@
       <c r="M73" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N73">
+        <f t="shared" si="3"/>
+        <v>38.235294117647058</v>
+      </c>
+      <c r="O73">
+        <f t="shared" si="4"/>
+        <v>2.6153846153846153E-2</v>
+      </c>
+      <c r="P73">
+        <f>_xlfn.XLOOKUP(K73,Sheet2!C:C,Sheet2!A:A,"",-1,1)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>353</v>
       </c>
       <c r="B74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>73</v>
       </c>
       <c r="C74" t="s">
@@ -5141,7 +6072,7 @@
       <c r="F74" t="s">
         <v>171</v>
       </c>
-      <c r="G74" s="1">
+      <c r="G74">
         <v>140</v>
       </c>
       <c r="H74">
@@ -5150,7 +6081,7 @@
       <c r="I74" t="s">
         <v>250</v>
       </c>
-      <c r="J74" s="1">
+      <c r="J74">
         <v>2400</v>
       </c>
       <c r="K74">
@@ -5162,13 +6093,25 @@
       <c r="M74" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N74">
+        <f t="shared" si="3"/>
+        <v>17.142857142857142</v>
+      </c>
+      <c r="O74">
+        <f t="shared" si="4"/>
+        <v>5.8333333333333334E-2</v>
+      </c>
+      <c r="P74">
+        <f>_xlfn.XLOOKUP(K74,Sheet2!C:C,Sheet2!A:A,"",-1,1)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>356</v>
       </c>
       <c r="B75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>74</v>
       </c>
       <c r="C75" t="s">
@@ -5183,7 +6126,7 @@
       <c r="F75" t="s">
         <v>97</v>
       </c>
-      <c r="G75" s="1">
+      <c r="G75">
         <v>95</v>
       </c>
       <c r="H75">
@@ -5192,7 +6135,7 @@
       <c r="I75" t="s">
         <v>358</v>
       </c>
-      <c r="J75" s="1">
+      <c r="J75">
         <v>2590</v>
       </c>
       <c r="K75">
@@ -5204,13 +6147,25 @@
       <c r="M75" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N75">
+        <f t="shared" si="3"/>
+        <v>27.263157894736842</v>
+      </c>
+      <c r="O75">
+        <f t="shared" si="4"/>
+        <v>3.6679536679536683E-2</v>
+      </c>
+      <c r="P75">
+        <f>_xlfn.XLOOKUP(K75,Sheet2!C:C,Sheet2!A:A,"",-1,1)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>360</v>
       </c>
       <c r="B76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>75</v>
       </c>
       <c r="C76" t="s">
@@ -5225,7 +6180,7 @@
       <c r="F76" t="s">
         <v>141</v>
       </c>
-      <c r="G76" s="1">
+      <c r="G76">
         <v>96</v>
       </c>
       <c r="H76">
@@ -5234,7 +6189,7 @@
       <c r="I76" t="s">
         <v>362</v>
       </c>
-      <c r="J76" s="1">
+      <c r="J76">
         <v>3680</v>
       </c>
       <c r="K76">
@@ -5246,13 +6201,25 @@
       <c r="M76" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N76">
+        <f t="shared" si="3"/>
+        <v>38.333333333333336</v>
+      </c>
+      <c r="O76">
+        <f t="shared" si="4"/>
+        <v>2.6086956521739129E-2</v>
+      </c>
+      <c r="P76">
+        <f>_xlfn.XLOOKUP(K76,Sheet2!C:C,Sheet2!A:A,"",-1,1)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>363</v>
       </c>
       <c r="B77">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>76</v>
       </c>
       <c r="C77" t="s">
@@ -5267,7 +6234,7 @@
       <c r="F77" t="s">
         <v>214</v>
       </c>
-      <c r="G77" s="1">
+      <c r="G77">
         <v>93</v>
       </c>
       <c r="H77">
@@ -5276,7 +6243,7 @@
       <c r="I77" t="s">
         <v>365</v>
       </c>
-      <c r="J77" s="1">
+      <c r="J77">
         <v>2050</v>
       </c>
       <c r="K77">
@@ -5288,13 +6255,25 @@
       <c r="M77" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N77">
+        <f t="shared" si="3"/>
+        <v>22.043010752688172</v>
+      </c>
+      <c r="O77">
+        <f t="shared" si="4"/>
+        <v>4.5365853658536584E-2</v>
+      </c>
+      <c r="P77">
+        <f>_xlfn.XLOOKUP(K77,Sheet2!C:C,Sheet2!A:A,"",-1,1)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>367</v>
       </c>
       <c r="B78">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>77</v>
       </c>
       <c r="C78" t="s">
@@ -5309,7 +6288,7 @@
       <c r="F78" t="s">
         <v>11</v>
       </c>
-      <c r="G78" s="1">
+      <c r="G78">
         <v>82</v>
       </c>
       <c r="H78">
@@ -5318,7 +6297,7 @@
       <c r="I78" t="s">
         <v>71</v>
       </c>
-      <c r="J78" s="1">
+      <c r="J78">
         <v>1800</v>
       </c>
       <c r="K78">
@@ -5330,13 +6309,25 @@
       <c r="M78" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N78">
+        <f t="shared" si="3"/>
+        <v>21.951219512195124</v>
+      </c>
+      <c r="O78">
+        <f t="shared" si="4"/>
+        <v>4.5555555555555557E-2</v>
+      </c>
+      <c r="P78">
+        <f>_xlfn.XLOOKUP(K78,Sheet2!C:C,Sheet2!A:A,"",-1,1)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>370</v>
       </c>
       <c r="B79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>78</v>
       </c>
       <c r="C79" t="s">
@@ -5351,7 +6342,7 @@
       <c r="F79" t="s">
         <v>215</v>
       </c>
-      <c r="G79" s="1">
+      <c r="G79">
         <v>78</v>
       </c>
       <c r="H79">
@@ -5360,7 +6351,7 @@
       <c r="I79" t="s">
         <v>372</v>
       </c>
-      <c r="J79" s="1">
+      <c r="J79">
         <v>2690</v>
       </c>
       <c r="K79">
@@ -5372,13 +6363,25 @@
       <c r="M79" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N79">
+        <f t="shared" si="3"/>
+        <v>34.487179487179489</v>
+      </c>
+      <c r="O79">
+        <f t="shared" si="4"/>
+        <v>2.8996282527881039E-2</v>
+      </c>
+      <c r="P79">
+        <f>_xlfn.XLOOKUP(K79,Sheet2!C:C,Sheet2!A:A,"",-1,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>374</v>
       </c>
       <c r="B80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>79</v>
       </c>
       <c r="C80" t="s">
@@ -5393,7 +6396,7 @@
       <c r="F80" t="s">
         <v>64</v>
       </c>
-      <c r="G80" s="1">
+      <c r="G80">
         <v>72</v>
       </c>
       <c r="H80">
@@ -5402,7 +6405,7 @@
       <c r="I80" t="s">
         <v>376</v>
       </c>
-      <c r="J80" s="1">
+      <c r="J80">
         <v>2675</v>
       </c>
       <c r="K80">
@@ -5414,13 +6417,25 @@
       <c r="M80" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N80">
+        <f t="shared" si="3"/>
+        <v>37.152777777777779</v>
+      </c>
+      <c r="O80">
+        <f t="shared" si="4"/>
+        <v>2.691588785046729E-2</v>
+      </c>
+      <c r="P80">
+        <f>_xlfn.XLOOKUP(K80,Sheet2!C:C,Sheet2!A:A,"",-1,1)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>378</v>
       </c>
       <c r="B81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>80</v>
       </c>
       <c r="C81" t="s">
@@ -5435,7 +6450,7 @@
       <c r="F81" t="s">
         <v>64</v>
       </c>
-      <c r="G81" s="1">
+      <c r="G81">
         <v>72</v>
       </c>
       <c r="H81">
@@ -5444,7 +6459,7 @@
       <c r="I81" t="s">
         <v>380</v>
       </c>
-      <c r="J81" s="1">
+      <c r="J81">
         <v>1825</v>
       </c>
       <c r="K81">
@@ -5456,13 +6471,25 @@
       <c r="M81" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N81">
+        <f t="shared" si="3"/>
+        <v>25.347222222222221</v>
+      </c>
+      <c r="O81">
+        <f t="shared" si="4"/>
+        <v>3.9452054794520547E-2</v>
+      </c>
+      <c r="P81">
+        <f>_xlfn.XLOOKUP(K81,Sheet2!C:C,Sheet2!A:A,"",-1,1)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>385</v>
       </c>
       <c r="B82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>81</v>
       </c>
       <c r="C82" t="s">
@@ -5477,7 +6504,7 @@
       <c r="F82" t="s">
         <v>389</v>
       </c>
-      <c r="G82" s="1">
+      <c r="G82">
         <v>133</v>
       </c>
       <c r="H82">
@@ -5486,7 +6513,7 @@
       <c r="I82" t="s">
         <v>390</v>
       </c>
-      <c r="J82" s="1">
+      <c r="J82">
         <v>3150</v>
       </c>
       <c r="K82">
@@ -5498,13 +6525,25 @@
       <c r="M82" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N82">
+        <f t="shared" si="3"/>
+        <v>23.684210526315791</v>
+      </c>
+      <c r="O82">
+        <f t="shared" si="4"/>
+        <v>4.2222222222222223E-2</v>
+      </c>
+      <c r="P82">
+        <f>_xlfn.XLOOKUP(K82,Sheet2!C:C,Sheet2!A:A,"",-1,1)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>392</v>
       </c>
       <c r="B83">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>82</v>
       </c>
       <c r="C83" t="s">
@@ -5519,7 +6558,7 @@
       <c r="F83" t="s">
         <v>105</v>
       </c>
-      <c r="G83" s="1">
+      <c r="G83">
         <v>67</v>
       </c>
       <c r="H83">
@@ -5528,7 +6567,7 @@
       <c r="I83" t="s">
         <v>37</v>
       </c>
-      <c r="J83" s="1">
+      <c r="J83">
         <v>1690</v>
       </c>
       <c r="K83">
@@ -5540,13 +6579,25 @@
       <c r="M83" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N83">
+        <f t="shared" si="3"/>
+        <v>25.223880597014926</v>
+      </c>
+      <c r="O83">
+        <f t="shared" si="4"/>
+        <v>3.9644970414201182E-2</v>
+      </c>
+      <c r="P83">
+        <f>_xlfn.XLOOKUP(K83,Sheet2!C:C,Sheet2!A:A,"",-1,1)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>395</v>
       </c>
       <c r="B84">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>83</v>
       </c>
       <c r="C84" t="s">
@@ -5561,7 +6612,7 @@
       <c r="F84" t="s">
         <v>97</v>
       </c>
-      <c r="G84" s="1">
+      <c r="G84">
         <v>95</v>
       </c>
       <c r="H84">
@@ -5570,7 +6621,7 @@
       <c r="I84" t="s">
         <v>397</v>
       </c>
-      <c r="J84" s="1">
+      <c r="J84">
         <v>1950</v>
       </c>
       <c r="K84">
@@ -5582,13 +6633,25 @@
       <c r="M84" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N84">
+        <f t="shared" si="3"/>
+        <v>20.526315789473685</v>
+      </c>
+      <c r="O84">
+        <f t="shared" si="4"/>
+        <v>4.8717948717948718E-2</v>
+      </c>
+      <c r="P84">
+        <f>_xlfn.XLOOKUP(K84,Sheet2!C:C,Sheet2!A:A,"",-1,1)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>399</v>
       </c>
       <c r="B85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>84</v>
       </c>
       <c r="C85" t="s">
@@ -5603,7 +6666,7 @@
       <c r="F85" t="s">
         <v>69</v>
       </c>
-      <c r="G85" s="1">
+      <c r="G85">
         <v>70</v>
       </c>
       <c r="H85">
@@ -5612,7 +6675,7 @@
       <c r="I85" t="s">
         <v>76</v>
       </c>
-      <c r="J85" s="1">
+      <c r="J85">
         <v>1600</v>
       </c>
       <c r="K85">
@@ -5624,13 +6687,25 @@
       <c r="M85" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N85">
+        <f t="shared" si="3"/>
+        <v>22.857142857142858</v>
+      </c>
+      <c r="O85">
+        <f t="shared" si="4"/>
+        <v>4.3749999999999997E-2</v>
+      </c>
+      <c r="P85">
+        <f>_xlfn.XLOOKUP(K85,Sheet2!C:C,Sheet2!A:A,"",-1,1)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>401</v>
       </c>
       <c r="B86">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>85</v>
       </c>
       <c r="C86" t="s">
@@ -5645,7 +6720,7 @@
       <c r="F86" t="s">
         <v>11</v>
       </c>
-      <c r="G86" s="1">
+      <c r="G86">
         <v>82</v>
       </c>
       <c r="H86">
@@ -5654,7 +6729,7 @@
       <c r="I86" t="s">
         <v>320</v>
       </c>
-      <c r="J86" s="1">
+      <c r="J86">
         <v>1750</v>
       </c>
       <c r="K86">
@@ -5666,13 +6741,25 @@
       <c r="M86" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N86">
+        <f t="shared" si="3"/>
+        <v>21.341463414634145</v>
+      </c>
+      <c r="O86">
+        <f t="shared" si="4"/>
+        <v>4.6857142857142854E-2</v>
+      </c>
+      <c r="P86">
+        <f>_xlfn.XLOOKUP(K86,Sheet2!C:C,Sheet2!A:A,"",-1,1)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>405</v>
       </c>
       <c r="B87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>86</v>
       </c>
       <c r="C87" t="s">
@@ -5687,7 +6774,7 @@
       <c r="F87" t="s">
         <v>69</v>
       </c>
-      <c r="G87" s="1">
+      <c r="G87">
         <v>70</v>
       </c>
       <c r="H87">
@@ -5696,7 +6783,7 @@
       <c r="I87" t="s">
         <v>407</v>
       </c>
-      <c r="J87" s="1">
+      <c r="J87">
         <v>1480</v>
       </c>
       <c r="K87">
@@ -5708,13 +6795,25 @@
       <c r="M87" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N87">
+        <f t="shared" si="3"/>
+        <v>21.142857142857142</v>
+      </c>
+      <c r="O87">
+        <f t="shared" si="4"/>
+        <v>4.72972972972973E-2</v>
+      </c>
+      <c r="P87">
+        <f>_xlfn.XLOOKUP(K87,Sheet2!C:C,Sheet2!A:A,"",-1,1)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>409</v>
       </c>
       <c r="B88">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>87</v>
       </c>
       <c r="C88" t="s">
@@ -5729,7 +6828,7 @@
       <c r="F88" t="s">
         <v>102</v>
       </c>
-      <c r="G88" s="1">
+      <c r="G88">
         <v>123</v>
       </c>
       <c r="H88">
@@ -5738,7 +6837,7 @@
       <c r="I88" t="s">
         <v>411</v>
       </c>
-      <c r="J88" s="1">
+      <c r="J88">
         <v>2410</v>
       </c>
       <c r="K88">
@@ -5750,13 +6849,25 @@
       <c r="M88" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N88">
+        <f t="shared" si="3"/>
+        <v>19.59349593495935</v>
+      </c>
+      <c r="O88">
+        <f t="shared" si="4"/>
+        <v>5.1037344398340248E-2</v>
+      </c>
+      <c r="P88">
+        <f>_xlfn.XLOOKUP(K88,Sheet2!C:C,Sheet2!A:A,"",-1,1)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>413</v>
       </c>
       <c r="B89">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>88</v>
       </c>
       <c r="C89" t="s">
@@ -5771,7 +6882,7 @@
       <c r="F89" t="s">
         <v>415</v>
       </c>
-      <c r="G89" s="1">
+      <c r="G89">
         <v>80</v>
       </c>
       <c r="H89">
@@ -5780,7 +6891,7 @@
       <c r="I89" t="s">
         <v>416</v>
       </c>
-      <c r="J89" s="1">
+      <c r="J89">
         <v>1450</v>
       </c>
       <c r="K89">
@@ -5792,13 +6903,25 @@
       <c r="M89" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N89">
+        <f t="shared" si="3"/>
+        <v>18.125</v>
+      </c>
+      <c r="O89">
+        <f t="shared" si="4"/>
+        <v>5.5172413793103448E-2</v>
+      </c>
+      <c r="P89">
+        <f>_xlfn.XLOOKUP(K89,Sheet2!C:C,Sheet2!A:A,"",-1,1)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>418</v>
       </c>
       <c r="B90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>89</v>
       </c>
       <c r="C90" t="s">
@@ -5813,7 +6936,7 @@
       <c r="F90" t="s">
         <v>236</v>
       </c>
-      <c r="G90" s="1">
+      <c r="G90">
         <v>83</v>
       </c>
       <c r="H90">
@@ -5822,7 +6945,7 @@
       <c r="I90" t="s">
         <v>267</v>
       </c>
-      <c r="J90" s="1">
+      <c r="J90">
         <v>1660</v>
       </c>
       <c r="K90">
@@ -5834,13 +6957,25 @@
       <c r="M90" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N90">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="O90">
+        <f t="shared" si="4"/>
+        <v>0.05</v>
+      </c>
+      <c r="P90">
+        <f>_xlfn.XLOOKUP(K90,Sheet2!C:C,Sheet2!A:A,"",-1,1)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>421</v>
       </c>
       <c r="B91">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>90</v>
       </c>
       <c r="C91" t="s">
@@ -5855,7 +6990,7 @@
       <c r="F91" t="s">
         <v>415</v>
       </c>
-      <c r="G91" s="1">
+      <c r="G91">
         <v>80</v>
       </c>
       <c r="H91">
@@ -5864,7 +6999,7 @@
       <c r="I91" t="s">
         <v>423</v>
       </c>
-      <c r="J91" s="1">
+      <c r="J91">
         <v>1920</v>
       </c>
       <c r="K91">
@@ -5876,13 +7011,25 @@
       <c r="M91" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N91">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="O91">
+        <f t="shared" si="4"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="P91">
+        <f>_xlfn.XLOOKUP(K91,Sheet2!C:C,Sheet2!A:A,"",-1,1)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>425</v>
       </c>
       <c r="B92">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>91</v>
       </c>
       <c r="C92" t="s">
@@ -5897,7 +7044,7 @@
       <c r="F92" t="s">
         <v>123</v>
       </c>
-      <c r="G92" s="1">
+      <c r="G92">
         <v>62</v>
       </c>
       <c r="H92">
@@ -5906,7 +7053,7 @@
       <c r="I92" t="s">
         <v>427</v>
       </c>
-      <c r="J92" s="1">
+      <c r="J92">
         <v>2882</v>
       </c>
       <c r="K92">
@@ -5918,13 +7065,25 @@
       <c r="M92" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N92">
+        <f t="shared" si="3"/>
+        <v>46.483870967741936</v>
+      </c>
+      <c r="O92">
+        <f t="shared" si="4"/>
+        <v>2.1512838306731435E-2</v>
+      </c>
+      <c r="P92">
+        <f>_xlfn.XLOOKUP(K92,Sheet2!C:C,Sheet2!A:A,"",-1,1)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>429</v>
       </c>
       <c r="B93">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>92</v>
       </c>
       <c r="C93" t="s">
@@ -5939,7 +7098,7 @@
       <c r="F93" t="s">
         <v>415</v>
       </c>
-      <c r="G93" s="1">
+      <c r="G93">
         <v>80</v>
       </c>
       <c r="H93">
@@ -5948,7 +7107,7 @@
       <c r="I93" t="s">
         <v>431</v>
       </c>
-      <c r="J93" s="1">
+      <c r="J93">
         <v>1849</v>
       </c>
       <c r="K93">
@@ -5960,13 +7119,25 @@
       <c r="M93" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N93">
+        <f t="shared" si="3"/>
+        <v>23.112500000000001</v>
+      </c>
+      <c r="O93">
+        <f t="shared" si="4"/>
+        <v>4.3266630611141159E-2</v>
+      </c>
+      <c r="P93">
+        <f>_xlfn.XLOOKUP(K93,Sheet2!C:C,Sheet2!A:A,"",-1,1)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>433</v>
       </c>
       <c r="B94">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>93</v>
       </c>
       <c r="C94" t="s">
@@ -5981,7 +7152,7 @@
       <c r="F94" t="s">
         <v>105</v>
       </c>
-      <c r="G94" s="1">
+      <c r="G94">
         <v>67</v>
       </c>
       <c r="H94">
@@ -5990,7 +7161,7 @@
       <c r="I94" t="s">
         <v>435</v>
       </c>
-      <c r="J94" s="1">
+      <c r="J94">
         <v>1180</v>
       </c>
       <c r="K94">
@@ -6002,13 +7173,25 @@
       <c r="M94" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N94">
+        <f t="shared" si="3"/>
+        <v>17.611940298507463</v>
+      </c>
+      <c r="O94">
+        <f t="shared" si="4"/>
+        <v>5.6779661016949153E-2</v>
+      </c>
+      <c r="P94">
+        <f>_xlfn.XLOOKUP(K94,Sheet2!C:C,Sheet2!A:A,"",-1,1)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>437</v>
       </c>
       <c r="B95">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>94</v>
       </c>
       <c r="C95" t="s">
@@ -6023,7 +7206,7 @@
       <c r="F95" t="s">
         <v>213</v>
       </c>
-      <c r="G95" s="1">
+      <c r="G95">
         <v>74</v>
       </c>
       <c r="H95">
@@ -6032,7 +7215,7 @@
       <c r="I95" t="s">
         <v>439</v>
       </c>
-      <c r="J95" s="1">
+      <c r="J95">
         <v>1360</v>
       </c>
       <c r="K95">
@@ -6044,13 +7227,25 @@
       <c r="M95" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N95">
+        <f t="shared" si="3"/>
+        <v>18.378378378378379</v>
+      </c>
+      <c r="O95">
+        <f t="shared" si="4"/>
+        <v>5.4411764705882354E-2</v>
+      </c>
+      <c r="P95">
+        <f>_xlfn.XLOOKUP(K95,Sheet2!C:C,Sheet2!A:A,"",-1,1)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>441</v>
       </c>
       <c r="B96">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>95</v>
       </c>
       <c r="C96" t="s">
@@ -6065,7 +7260,7 @@
       <c r="F96" t="s">
         <v>45</v>
       </c>
-      <c r="G96" s="1">
+      <c r="G96">
         <v>75</v>
       </c>
       <c r="H96">
@@ -6074,7 +7269,7 @@
       <c r="I96" t="s">
         <v>382</v>
       </c>
-      <c r="J96" s="1">
+      <c r="J96">
         <v>1860</v>
       </c>
       <c r="K96">
@@ -6086,13 +7281,25 @@
       <c r="M96" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N96">
+        <f t="shared" si="3"/>
+        <v>24.8</v>
+      </c>
+      <c r="O96">
+        <f t="shared" si="4"/>
+        <v>4.0322580645161289E-2</v>
+      </c>
+      <c r="P96">
+        <f>_xlfn.XLOOKUP(K96,Sheet2!C:C,Sheet2!A:A,"",-1,1)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>444</v>
       </c>
       <c r="B97">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>96</v>
       </c>
       <c r="C97" t="s">
@@ -6107,7 +7314,7 @@
       <c r="F97" t="s">
         <v>141</v>
       </c>
-      <c r="G97" s="1">
+      <c r="G97">
         <v>96</v>
       </c>
       <c r="H97">
@@ -6116,7 +7323,7 @@
       <c r="I97" t="s">
         <v>446</v>
       </c>
-      <c r="J97" s="1">
+      <c r="J97">
         <v>2140</v>
       </c>
       <c r="K97">
@@ -6128,13 +7335,25 @@
       <c r="M97" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N97">
+        <f t="shared" si="3"/>
+        <v>22.291666666666668</v>
+      </c>
+      <c r="O97">
+        <f t="shared" si="4"/>
+        <v>4.4859813084112146E-2</v>
+      </c>
+      <c r="P97">
+        <f>_xlfn.XLOOKUP(K97,Sheet2!C:C,Sheet2!A:A,"",-1,1)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>448</v>
       </c>
       <c r="B98">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>97</v>
       </c>
       <c r="C98" t="s">
@@ -6149,7 +7368,7 @@
       <c r="F98" t="s">
         <v>38</v>
       </c>
-      <c r="G98" s="1">
+      <c r="G98">
         <v>116</v>
       </c>
       <c r="H98">
@@ -6158,7 +7377,7 @@
       <c r="I98" t="s">
         <v>223</v>
       </c>
-      <c r="J98" s="1">
+      <c r="J98">
         <v>2040</v>
       </c>
       <c r="K98">
@@ -6170,13 +7389,25 @@
       <c r="M98" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N98">
+        <f t="shared" si="3"/>
+        <v>17.586206896551722</v>
+      </c>
+      <c r="O98">
+        <f t="shared" si="4"/>
+        <v>5.6862745098039215E-2</v>
+      </c>
+      <c r="P98">
+        <f>_xlfn.XLOOKUP(K98,Sheet2!C:C,Sheet2!A:A,"",-1,1)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>451</v>
       </c>
       <c r="B99">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>98</v>
       </c>
       <c r="C99" t="s">
@@ -6191,7 +7422,7 @@
       <c r="F99" t="s">
         <v>181</v>
       </c>
-      <c r="G99" s="1">
+      <c r="G99">
         <v>109</v>
       </c>
       <c r="H99">
@@ -6200,7 +7431,7 @@
       <c r="I99" t="s">
         <v>453</v>
       </c>
-      <c r="J99" s="1">
+      <c r="J99">
         <v>2232</v>
       </c>
       <c r="K99">
@@ -6212,13 +7443,25 @@
       <c r="M99" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N99">
+        <f t="shared" si="3"/>
+        <v>20.477064220183486</v>
+      </c>
+      <c r="O99">
+        <f t="shared" si="4"/>
+        <v>4.8835125448028677E-2</v>
+      </c>
+      <c r="P99">
+        <f>_xlfn.XLOOKUP(K99,Sheet2!C:C,Sheet2!A:A,"",-1,1)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>455</v>
       </c>
       <c r="B100">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>99</v>
       </c>
       <c r="C100" t="s">
@@ -6233,7 +7476,7 @@
       <c r="F100" t="s">
         <v>457</v>
       </c>
-      <c r="G100" s="1">
+      <c r="G100">
         <v>103</v>
       </c>
       <c r="H100">
@@ -6242,7 +7485,7 @@
       <c r="I100" t="s">
         <v>458</v>
       </c>
-      <c r="J100" s="1">
+      <c r="J100">
         <v>2570</v>
       </c>
       <c r="K100">
@@ -6254,13 +7497,25 @@
       <c r="M100" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N100">
+        <f t="shared" si="3"/>
+        <v>24.95145631067961</v>
+      </c>
+      <c r="O100">
+        <f t="shared" si="4"/>
+        <v>4.0077821011673155E-2</v>
+      </c>
+      <c r="P100">
+        <f>_xlfn.XLOOKUP(K100,Sheet2!C:C,Sheet2!A:A,"",-1,1)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>460</v>
       </c>
       <c r="B101">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="C101" t="s">
@@ -6275,7 +7530,7 @@
       <c r="F101" t="s">
         <v>227</v>
       </c>
-      <c r="G101" s="1">
+      <c r="G101">
         <v>76</v>
       </c>
       <c r="H101">
@@ -6284,7 +7539,7 @@
       <c r="I101" t="s">
         <v>232</v>
       </c>
-      <c r="J101" s="1">
+      <c r="J101">
         <v>1760</v>
       </c>
       <c r="K101">
@@ -6296,13 +7551,25 @@
       <c r="M101" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N101">
+        <f t="shared" si="3"/>
+        <v>23.157894736842106</v>
+      </c>
+      <c r="O101">
+        <f t="shared" si="4"/>
+        <v>4.3181818181818182E-2</v>
+      </c>
+      <c r="P101">
+        <f>_xlfn.XLOOKUP(K101,Sheet2!C:C,Sheet2!A:A,"",-1,1)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>463</v>
       </c>
       <c r="B102">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>101</v>
       </c>
       <c r="C102" t="s">
@@ -6317,7 +7584,7 @@
       <c r="F102" t="s">
         <v>69</v>
       </c>
-      <c r="G102" s="1">
+      <c r="G102">
         <v>70</v>
       </c>
       <c r="H102">
@@ -6326,7 +7593,7 @@
       <c r="I102" t="s">
         <v>465</v>
       </c>
-      <c r="J102" s="1">
+      <c r="J102">
         <v>2240</v>
       </c>
       <c r="K102">
@@ -6338,13 +7605,25 @@
       <c r="M102" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N102">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="O102">
+        <f t="shared" si="4"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="P102">
+        <f>_xlfn.XLOOKUP(K102,Sheet2!C:C,Sheet2!A:A,"",-1,1)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>467</v>
       </c>
       <c r="B103">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>102</v>
       </c>
       <c r="C103" t="s">
@@ -6359,7 +7638,7 @@
       <c r="F103" t="s">
         <v>31</v>
       </c>
-      <c r="G103" s="1">
+      <c r="G103">
         <v>89</v>
       </c>
       <c r="H103">
@@ -6368,7 +7647,7 @@
       <c r="I103" t="s">
         <v>469</v>
       </c>
-      <c r="J103" s="1">
+      <c r="J103">
         <v>2205</v>
       </c>
       <c r="K103">
@@ -6380,13 +7659,25 @@
       <c r="M103" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N103">
+        <f t="shared" si="3"/>
+        <v>24.775280898876403</v>
+      </c>
+      <c r="O103">
+        <f t="shared" si="4"/>
+        <v>4.0362811791383221E-2</v>
+      </c>
+      <c r="P103">
+        <f>_xlfn.XLOOKUP(K103,Sheet2!C:C,Sheet2!A:A,"",-1,1)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>471</v>
       </c>
       <c r="B104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>103</v>
       </c>
       <c r="C104" t="s">
@@ -6401,7 +7692,7 @@
       <c r="F104" t="s">
         <v>34</v>
       </c>
-      <c r="G104" s="1">
+      <c r="G104">
         <v>94</v>
       </c>
       <c r="H104">
@@ -6410,7 +7701,7 @@
       <c r="I104" t="s">
         <v>382</v>
       </c>
-      <c r="J104" s="1">
+      <c r="J104">
         <v>1860</v>
       </c>
       <c r="K104">
@@ -6422,13 +7713,25 @@
       <c r="M104" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N104">
+        <f t="shared" si="3"/>
+        <v>19.787234042553191</v>
+      </c>
+      <c r="O104">
+        <f t="shared" si="4"/>
+        <v>5.053763440860215E-2</v>
+      </c>
+      <c r="P104">
+        <f>_xlfn.XLOOKUP(K104,Sheet2!C:C,Sheet2!A:A,"",-1,1)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>474</v>
       </c>
       <c r="B105">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>104</v>
       </c>
       <c r="C105" t="s">
@@ -6443,7 +7746,7 @@
       <c r="F105" t="s">
         <v>383</v>
       </c>
-      <c r="G105" s="1">
+      <c r="G105">
         <v>84</v>
       </c>
       <c r="H105">
@@ -6452,7 +7755,7 @@
       <c r="I105" t="s">
         <v>476</v>
       </c>
-      <c r="J105" s="1">
+      <c r="J105">
         <v>2025</v>
       </c>
       <c r="K105">
@@ -6464,13 +7767,25 @@
       <c r="M105" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N105">
+        <f t="shared" si="3"/>
+        <v>24.107142857142858</v>
+      </c>
+      <c r="O105">
+        <f t="shared" si="4"/>
+        <v>4.148148148148148E-2</v>
+      </c>
+      <c r="P105">
+        <f>_xlfn.XLOOKUP(K105,Sheet2!C:C,Sheet2!A:A,"",-1,1)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>478</v>
       </c>
       <c r="B106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>105</v>
       </c>
       <c r="C106" t="s">
@@ -6485,7 +7800,7 @@
       <c r="F106" t="s">
         <v>59</v>
       </c>
-      <c r="G106" s="1">
+      <c r="G106">
         <v>97</v>
       </c>
       <c r="H106">
@@ -6494,7 +7809,7 @@
       <c r="I106" t="s">
         <v>481</v>
       </c>
-      <c r="J106" s="1">
+      <c r="J106">
         <v>1780</v>
       </c>
       <c r="K106">
@@ -6506,13 +7821,25 @@
       <c r="M106" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N106">
+        <f t="shared" si="3"/>
+        <v>18.350515463917525</v>
+      </c>
+      <c r="O106">
+        <f t="shared" si="4"/>
+        <v>5.4494382022471907E-2</v>
+      </c>
+      <c r="P106">
+        <f>_xlfn.XLOOKUP(K106,Sheet2!C:C,Sheet2!A:A,"",-1,1)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>483</v>
       </c>
       <c r="B107">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>106</v>
       </c>
       <c r="C107" t="s">
@@ -6527,7 +7854,7 @@
       <c r="F107" t="s">
         <v>222</v>
       </c>
-      <c r="G107" s="1">
+      <c r="G107">
         <v>71</v>
       </c>
       <c r="H107">
@@ -6536,7 +7863,7 @@
       <c r="I107" t="s">
         <v>485</v>
       </c>
-      <c r="J107" s="1">
+      <c r="J107">
         <v>1580</v>
       </c>
       <c r="K107">
@@ -6548,13 +7875,25 @@
       <c r="M107" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N107">
+        <f t="shared" si="3"/>
+        <v>22.253521126760564</v>
+      </c>
+      <c r="O107">
+        <f t="shared" si="4"/>
+        <v>4.493670886075949E-2</v>
+      </c>
+      <c r="P107">
+        <f>_xlfn.XLOOKUP(K107,Sheet2!C:C,Sheet2!A:A,"",-1,1)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>486</v>
       </c>
       <c r="B108">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>107</v>
       </c>
       <c r="C108" t="s">
@@ -6569,7 +7908,7 @@
       <c r="F108" t="s">
         <v>31</v>
       </c>
-      <c r="G108" s="1">
+      <c r="G108">
         <v>89</v>
       </c>
       <c r="H108">
@@ -6578,7 +7917,7 @@
       <c r="I108" t="s">
         <v>258</v>
       </c>
-      <c r="J108" s="1">
+      <c r="J108">
         <v>1610</v>
       </c>
       <c r="K108">
@@ -6590,13 +7929,25 @@
       <c r="M108" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N108">
+        <f t="shared" si="3"/>
+        <v>18.089887640449437</v>
+      </c>
+      <c r="O108">
+        <f t="shared" si="4"/>
+        <v>5.5279503105590065E-2</v>
+      </c>
+      <c r="P108">
+        <f>_xlfn.XLOOKUP(K108,Sheet2!C:C,Sheet2!A:A,"",-1,1)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>489</v>
       </c>
       <c r="B109">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>108</v>
       </c>
       <c r="C109" t="s">
@@ -6611,7 +7962,7 @@
       <c r="F109" t="s">
         <v>108</v>
       </c>
-      <c r="G109" s="1">
+      <c r="G109">
         <v>81</v>
       </c>
       <c r="H109">
@@ -6620,7 +7971,7 @@
       <c r="I109" t="s">
         <v>262</v>
       </c>
-      <c r="J109" s="1">
+      <c r="J109">
         <v>2045</v>
       </c>
       <c r="K109">
@@ -6632,13 +7983,25 @@
       <c r="M109" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N109">
+        <f t="shared" si="3"/>
+        <v>25.246913580246915</v>
+      </c>
+      <c r="O109">
+        <f t="shared" si="4"/>
+        <v>3.9608801955990217E-2</v>
+      </c>
+      <c r="P109">
+        <f>_xlfn.XLOOKUP(K109,Sheet2!C:C,Sheet2!A:A,"",-1,1)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>492</v>
       </c>
       <c r="B110">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>109</v>
       </c>
       <c r="C110" t="s">
@@ -6653,7 +8016,7 @@
       <c r="F110" t="s">
         <v>10</v>
       </c>
-      <c r="G110" s="1">
+      <c r="G110">
         <v>69</v>
       </c>
       <c r="H110">
@@ -6662,7 +8025,7 @@
       <c r="I110" t="s">
         <v>277</v>
       </c>
-      <c r="J110" s="1">
+      <c r="J110">
         <v>1820</v>
       </c>
       <c r="K110">
@@ -6674,13 +8037,25 @@
       <c r="M110" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N110">
+        <f t="shared" si="3"/>
+        <v>26.376811594202898</v>
+      </c>
+      <c r="O110">
+        <f t="shared" si="4"/>
+        <v>3.7912087912087909E-2</v>
+      </c>
+      <c r="P110">
+        <f>_xlfn.XLOOKUP(K110,Sheet2!C:C,Sheet2!A:A,"",-1,1)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>495</v>
       </c>
       <c r="B111">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>110</v>
       </c>
       <c r="C111" t="s">
@@ -6695,7 +8070,7 @@
       <c r="F111" t="s">
         <v>215</v>
       </c>
-      <c r="G111" s="1">
+      <c r="G111">
         <v>78</v>
       </c>
       <c r="H111">
@@ -6704,7 +8079,7 @@
       <c r="I111" t="s">
         <v>497</v>
       </c>
-      <c r="J111" s="1">
+      <c r="J111">
         <v>1595</v>
       </c>
       <c r="K111">
@@ -6716,13 +8091,25 @@
       <c r="M111" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N111">
+        <f t="shared" si="3"/>
+        <v>20.448717948717949</v>
+      </c>
+      <c r="O111">
+        <f t="shared" si="4"/>
+        <v>4.8902821316614421E-2</v>
+      </c>
+      <c r="P111">
+        <f>_xlfn.XLOOKUP(K111,Sheet2!C:C,Sheet2!A:A,"",-1,1)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>499</v>
       </c>
       <c r="B112">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>111</v>
       </c>
       <c r="C112" t="s">
@@ -6737,7 +8124,7 @@
       <c r="F112" t="s">
         <v>10</v>
       </c>
-      <c r="G112" s="1">
+      <c r="G112">
         <v>69</v>
       </c>
       <c r="H112">
@@ -6746,7 +8133,7 @@
       <c r="I112" t="s">
         <v>501</v>
       </c>
-      <c r="J112" s="1">
+      <c r="J112">
         <v>1680</v>
       </c>
       <c r="K112">
@@ -6758,13 +8145,25 @@
       <c r="M112" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N112">
+        <f t="shared" si="3"/>
+        <v>24.347826086956523</v>
+      </c>
+      <c r="O112">
+        <f t="shared" si="4"/>
+        <v>4.1071428571428571E-2</v>
+      </c>
+      <c r="P112">
+        <f>_xlfn.XLOOKUP(K112,Sheet2!C:C,Sheet2!A:A,"",-1,1)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>503</v>
       </c>
       <c r="B113">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>112</v>
       </c>
       <c r="C113" t="s">
@@ -6779,7 +8178,7 @@
       <c r="F113" t="s">
         <v>505</v>
       </c>
-      <c r="G113" s="1">
+      <c r="G113">
         <v>66</v>
       </c>
       <c r="H113">
@@ -6788,7 +8187,7 @@
       <c r="I113" t="s">
         <v>416</v>
       </c>
-      <c r="J113" s="1">
+      <c r="J113">
         <v>1450</v>
       </c>
       <c r="K113">
@@ -6800,13 +8199,25 @@
       <c r="M113" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N113">
+        <f t="shared" si="3"/>
+        <v>21.969696969696969</v>
+      </c>
+      <c r="O113">
+        <f t="shared" si="4"/>
+        <v>4.5517241379310347E-2</v>
+      </c>
+      <c r="P113">
+        <f>_xlfn.XLOOKUP(K113,Sheet2!C:C,Sheet2!A:A,"",-1,1)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>507</v>
       </c>
       <c r="B114">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>113</v>
       </c>
       <c r="C114" t="s">
@@ -6821,7 +8232,7 @@
       <c r="F114" t="s">
         <v>211</v>
       </c>
-      <c r="G114" s="1">
+      <c r="G114">
         <v>87</v>
       </c>
       <c r="H114">
@@ -6830,7 +8241,7 @@
       <c r="I114" t="s">
         <v>509</v>
       </c>
-      <c r="J114" s="1">
+      <c r="J114">
         <v>1630</v>
       </c>
       <c r="K114">
@@ -6842,13 +8253,25 @@
       <c r="M114" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N114">
+        <f t="shared" si="3"/>
+        <v>18.735632183908045</v>
+      </c>
+      <c r="O114">
+        <f t="shared" si="4"/>
+        <v>5.3374233128834353E-2</v>
+      </c>
+      <c r="P114">
+        <f>_xlfn.XLOOKUP(K114,Sheet2!C:C,Sheet2!A:A,"",-1,1)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>511</v>
       </c>
       <c r="B115">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>114</v>
       </c>
       <c r="C115" t="s">
@@ -6863,7 +8286,7 @@
       <c r="F115" t="s">
         <v>141</v>
       </c>
-      <c r="G115" s="1">
+      <c r="G115">
         <v>96</v>
       </c>
       <c r="H115">
@@ -6872,7 +8295,7 @@
       <c r="I115" t="s">
         <v>513</v>
       </c>
-      <c r="J115" s="1">
+      <c r="J115">
         <v>1770</v>
       </c>
       <c r="K115">
@@ -6884,13 +8307,25 @@
       <c r="M115" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N115">
+        <f t="shared" si="3"/>
+        <v>18.4375</v>
+      </c>
+      <c r="O115">
+        <f t="shared" si="4"/>
+        <v>5.4237288135593219E-2</v>
+      </c>
+      <c r="P115">
+        <f>_xlfn.XLOOKUP(K115,Sheet2!C:C,Sheet2!A:A,"",-1,1)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>515</v>
       </c>
       <c r="B116">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>115</v>
       </c>
       <c r="C116" t="s">
@@ -6905,7 +8340,7 @@
       <c r="F116" t="s">
         <v>186</v>
       </c>
-      <c r="G116" s="1">
+      <c r="G116">
         <v>105</v>
       </c>
       <c r="H116">
@@ -6914,7 +8349,7 @@
       <c r="I116" t="s">
         <v>517</v>
       </c>
-      <c r="J116" s="1">
+      <c r="J116">
         <v>2100</v>
       </c>
       <c r="K116">
@@ -6926,13 +8361,25 @@
       <c r="M116" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N116">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="O116">
+        <f t="shared" si="4"/>
+        <v>0.05</v>
+      </c>
+      <c r="P116">
+        <f>_xlfn.XLOOKUP(K116,Sheet2!C:C,Sheet2!A:A,"",-1,1)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>519</v>
       </c>
       <c r="B117">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>116</v>
       </c>
       <c r="C117" t="s">
@@ -6947,7 +8394,7 @@
       <c r="F117" t="s">
         <v>521</v>
       </c>
-      <c r="G117" s="1">
+      <c r="G117">
         <v>122</v>
       </c>
       <c r="H117">
@@ -6956,7 +8403,7 @@
       <c r="I117" t="s">
         <v>517</v>
       </c>
-      <c r="J117" s="1">
+      <c r="J117">
         <v>2100</v>
       </c>
       <c r="K117">
@@ -6968,13 +8415,25 @@
       <c r="M117" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N117">
+        <f t="shared" si="3"/>
+        <v>17.21311475409836</v>
+      </c>
+      <c r="O117">
+        <f t="shared" si="4"/>
+        <v>5.8095238095238096E-2</v>
+      </c>
+      <c r="P117">
+        <f>_xlfn.XLOOKUP(K117,Sheet2!C:C,Sheet2!A:A,"",-1,1)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>523</v>
       </c>
       <c r="B118">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>117</v>
       </c>
       <c r="C118" t="s">
@@ -6989,7 +8448,7 @@
       <c r="F118" t="s">
         <v>525</v>
       </c>
-      <c r="G118" s="1">
+      <c r="G118">
         <v>145</v>
       </c>
       <c r="H118">
@@ -6998,7 +8457,7 @@
       <c r="I118" t="s">
         <v>526</v>
       </c>
-      <c r="J118" s="1">
+      <c r="J118">
         <v>2650</v>
       </c>
       <c r="K118">
@@ -7010,13 +8469,25 @@
       <c r="M118" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N118">
+        <f t="shared" si="3"/>
+        <v>18.275862068965516</v>
+      </c>
+      <c r="O118">
+        <f t="shared" si="4"/>
+        <v>5.4716981132075473E-2</v>
+      </c>
+      <c r="P118">
+        <f>_xlfn.XLOOKUP(K118,Sheet2!C:C,Sheet2!A:A,"",-1,1)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>527</v>
       </c>
       <c r="B119">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>118</v>
       </c>
       <c r="C119" t="s">
@@ -7031,7 +8502,7 @@
       <c r="F119" t="s">
         <v>128</v>
       </c>
-      <c r="G119" s="1">
+      <c r="G119">
         <v>88</v>
       </c>
       <c r="H119">
@@ -7040,7 +8511,7 @@
       <c r="I119" t="s">
         <v>529</v>
       </c>
-      <c r="J119" s="1">
+      <c r="J119">
         <v>1590</v>
       </c>
       <c r="K119">
@@ -7052,13 +8523,25 @@
       <c r="M119" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N119">
+        <f t="shared" si="3"/>
+        <v>18.068181818181817</v>
+      </c>
+      <c r="O119">
+        <f t="shared" si="4"/>
+        <v>5.5345911949685536E-2</v>
+      </c>
+      <c r="P119">
+        <f>_xlfn.XLOOKUP(K119,Sheet2!C:C,Sheet2!A:A,"",-1,1)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>531</v>
       </c>
       <c r="B120">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>119</v>
       </c>
       <c r="C120" t="s">
@@ -7073,7 +8556,7 @@
       <c r="F120" t="s">
         <v>505</v>
       </c>
-      <c r="G120" s="1">
+      <c r="G120">
         <v>66</v>
       </c>
       <c r="H120">
@@ -7082,7 +8565,7 @@
       <c r="I120" t="s">
         <v>313</v>
       </c>
-      <c r="J120" s="1">
+      <c r="J120">
         <v>1650</v>
       </c>
       <c r="K120">
@@ -7094,13 +8577,25 @@
       <c r="M120" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N120">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="O120">
+        <f t="shared" si="4"/>
+        <v>0.04</v>
+      </c>
+      <c r="P120">
+        <f>_xlfn.XLOOKUP(K120,Sheet2!C:C,Sheet2!A:A,"",-1,1)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>534</v>
       </c>
       <c r="B121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>120</v>
       </c>
       <c r="C121" t="s">
@@ -7115,7 +8610,7 @@
       <c r="F121" t="s">
         <v>266</v>
       </c>
-      <c r="G121" s="1">
+      <c r="G121">
         <v>61</v>
       </c>
       <c r="H121">
@@ -7124,7 +8619,7 @@
       <c r="I121" t="s">
         <v>435</v>
       </c>
-      <c r="J121" s="1">
+      <c r="J121">
         <v>1180</v>
       </c>
       <c r="K121">
@@ -7135,10 +8630,222 @@
       </c>
       <c r="M121" t="s">
         <v>537</v>
+      </c>
+      <c r="N121">
+        <f t="shared" si="3"/>
+        <v>19.344262295081968</v>
+      </c>
+      <c r="O121">
+        <f t="shared" si="4"/>
+        <v>5.1694915254237285E-2</v>
+      </c>
+      <c r="P121">
+        <f>_xlfn.XLOOKUP(K121,Sheet2!C:C,Sheet2!A:A,"",-1,1)</f>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:M121" xr:uid="{C554650E-8343-5041-B44F-DCAB2BC644D3}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8119813A-FE27-4446-9FE8-FDDE01BCE4C3}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="26.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B1" t="s">
+        <v>558</v>
+      </c>
+      <c r="C1" t="s">
+        <v>559</v>
+      </c>
+      <c r="D1" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>545</v>
+      </c>
+      <c r="C2">
+        <v>1500</v>
+      </c>
+      <c r="D2">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>546</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1919</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>547</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1946</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>548</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1961</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>549</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1971</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>550</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1981</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>551</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1991</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>552</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2001</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>553</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2006</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>554</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2011</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>555</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2016</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>557</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2021</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2025</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>